--- a/ripple/chess13a_analysis/085_ver4.xlsx
+++ b/ripple/chess13a_analysis/085_ver4.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="705" yWindow="255" windowWidth="16380" windowHeight="8190" tabRatio="382" activeTab="1"/>
+    <workbookView xWindow="705" yWindow="255" windowWidth="16380" windowHeight="8190" tabRatio="545" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="everything" sheetId="1" r:id="rId1"/>
     <sheet name="cleaned up" sheetId="2" r:id="rId2"/>
     <sheet name="085_ver4" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="48">
   <si>
     <t>h</t>
   </si>
@@ -144,6 +145,24 @@
   <si>
     <t>35 $\times$ 10</t>
   </si>
+  <si>
+    <t>$I^\text{obs}_{hk}$</t>
+  </si>
+  <si>
+    <t>$\sigma_I$</t>
+  </si>
+  <si>
+    <t>correction</t>
+  </si>
+  <si>
+    <t>|F|</t>
+  </si>
+  <si>
+    <t>$\sigma_F$</t>
+  </si>
+  <si>
+    <t>$|F_{hk}|$</t>
+  </si>
 </sst>
 </file>
 
@@ -214,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -253,10 +272,34 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -556,7 +599,7 @@
   <dimension ref="A1:X60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4575,8 +4618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AI62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4607,10 +4650,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
-      <c r="Q1" s="22" t="s">
+      <c r="Q1" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="R1" s="22"/>
+      <c r="R1" s="23"/>
     </row>
     <row r="2" spans="1:35">
       <c r="A2" s="4" t="s">
@@ -4652,10 +4695,10 @@
       <c r="N2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="23" t="s">
+      <c r="O2" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="23" t="s">
+      <c r="P2" s="22" t="s">
         <v>31</v>
       </c>
       <c r="Q2" s="18" t="s">
@@ -4664,7 +4707,7 @@
       <c r="R2" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="S2" s="23" t="s">
+      <c r="S2" s="22" t="s">
         <v>33</v>
       </c>
       <c r="T2" s="20"/>
@@ -10169,10 +10212,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75"/>
@@ -10180,12 +10223,19 @@
     <col min="1" max="1" width="2.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="1025" width="11.42578125" style="3"/>
+    <col min="4" max="4" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="3"/>
+    <col min="7" max="7" width="2.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="1025" width="11.42578125" style="3"/>
     <col min="1026" max="16384" width="9.28515625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -10201,8 +10251,23 @@
       <c r="E1" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="G1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -10218,8 +10283,25 @@
       <c r="E2" s="2">
         <v>4604.4411934855052</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I2" s="6">
+        <v>0.11069326989478628</v>
+      </c>
+      <c r="J2" s="2">
+        <f>D2/$D$3*10000</f>
+        <v>7454.6592785055518</v>
+      </c>
+      <c r="K2" s="2">
+        <f>E2/$D$3*10000</f>
+        <v>646.89192086205207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -10235,8 +10317,25 @@
       <c r="E3" s="2">
         <v>692.41964608161788</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0.109</v>
+      </c>
+      <c r="J3" s="2">
+        <f t="shared" ref="J3:J60" si="0">D3/$D$3*10000</f>
+        <v>10000</v>
+      </c>
+      <c r="K3" s="2">
+        <f t="shared" ref="K3:K60" si="1">E3/$D$3*10000</f>
+        <v>97.280138039354483</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -10252,8 +10351,25 @@
       <c r="E4" s="2">
         <v>1624.7661842702207</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0.12184005909387931</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" si="0"/>
+        <v>1858.756429855325</v>
+      </c>
+      <c r="K4" s="2">
+        <f t="shared" si="1"/>
+        <v>228.26833349100488</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -10269,8 +10385,25 @@
       <c r="E5" s="2">
         <v>110.05499999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3">
+        <v>2</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <f t="shared" si="1"/>
+        <v>15.461961041265983</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -10286,8 +10419,25 @@
       <c r="E6" s="2">
         <v>28.91833240492284</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3">
+        <v>3</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0.18243903091169938</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="0"/>
+        <v>77.193661818569225</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" si="1"/>
+        <v>4.0628243062404854</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="3">
         <v>2</v>
       </c>
@@ -10303,8 +10453,25 @@
       <c r="E7" s="2">
         <v>163.58375743269488</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="G7" s="3">
+        <v>2</v>
+      </c>
+      <c r="H7" s="3">
+        <v>-2</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0.22361797781037193</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="0"/>
+        <v>323.06658014599213</v>
+      </c>
+      <c r="K7" s="2">
+        <f t="shared" si="1"/>
+        <v>22.982378668922205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="3">
         <v>2</v>
       </c>
@@ -10320,8 +10487,25 @@
       <c r="E8" s="2">
         <v>452.81203881811587</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="G8" s="3">
+        <v>2</v>
+      </c>
+      <c r="H8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0.21651789764358972</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="0"/>
+        <v>5782.7796572883863</v>
+      </c>
+      <c r="K8" s="2">
+        <f t="shared" si="1"/>
+        <v>63.616937923964642</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="3">
         <v>2</v>
       </c>
@@ -10337,8 +10521,25 @@
       <c r="E9" s="2">
         <v>100.34920634920634</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="G9" s="3">
+        <v>2</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0.218</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="0"/>
+        <v>826.45585748152962</v>
+      </c>
+      <c r="K9" s="2">
+        <f t="shared" si="1"/>
+        <v>14.098364627626093</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="3">
         <v>2</v>
       </c>
@@ -10354,8 +10555,25 @@
       <c r="E10" s="2">
         <v>201.86984281425782</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="G10" s="3">
+        <v>2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0.22808989455914089</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="0"/>
+        <v>1559.8718865569926</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" si="1"/>
+        <v>28.361307028308961</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -10371,8 +10589,25 @@
       <c r="E11" s="2">
         <v>115.8202734530287</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="G11" s="3">
+        <v>2</v>
+      </c>
+      <c r="H11" s="3">
+        <v>2</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0.2464893506827425</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="0"/>
+        <v>607.48582758010195</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" si="1"/>
+        <v>16.2719418101813</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="3">
         <v>2</v>
       </c>
@@ -10388,8 +10623,25 @@
       <c r="E12" s="2">
         <v>11.288811463143311</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="G12" s="3">
+        <v>2</v>
+      </c>
+      <c r="H12" s="3">
+        <v>3</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0.26983328186122629</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="0"/>
+        <v>214.10991786941099</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" si="1"/>
+        <v>1.5859993916252668</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="3">
         <v>2</v>
       </c>
@@ -10405,8 +10657,25 @@
       <c r="E13" s="2">
         <v>29.530899850087014</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="G13" s="3">
+        <v>2</v>
+      </c>
+      <c r="H13" s="3">
+        <v>4</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0.29829180344085893</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="0"/>
+        <v>85.052158206435337</v>
+      </c>
+      <c r="K13" s="2">
+        <f t="shared" si="1"/>
+        <v>4.1488857661675791</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="3">
         <v>2</v>
       </c>
@@ -10422,8 +10691,25 @@
       <c r="E14" s="2">
         <v>60.785969340453725</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="G14" s="3">
+        <v>2</v>
+      </c>
+      <c r="H14" s="3">
+        <v>5</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0.32908357601071497</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" si="0"/>
+        <v>31.720019905293832</v>
+      </c>
+      <c r="K14" s="2">
+        <f t="shared" si="1"/>
+        <v>8.5400053591175702</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="3">
         <v>2</v>
       </c>
@@ -10439,8 +10725,25 @@
       <c r="E15" s="2">
         <v>20.089278153472531</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="G15" s="3">
+        <v>2</v>
+      </c>
+      <c r="H15" s="3">
+        <v>6</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0.36274646793594006</v>
+      </c>
+      <c r="J15" s="2">
+        <f t="shared" si="0"/>
+        <v>16.934422033863878</v>
+      </c>
+      <c r="K15" s="2">
+        <f t="shared" si="1"/>
+        <v>2.8224036723106458</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="3">
         <v>3</v>
       </c>
@@ -10456,8 +10759,25 @@
       <c r="E16" s="2">
         <v>385.8461317110594</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="G16" s="3">
+        <v>3</v>
+      </c>
+      <c r="H16" s="3">
+        <v>-2</v>
+      </c>
+      <c r="I16" s="6">
+        <v>0.32582971012478285</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" si="0"/>
+        <v>1102.243451737206</v>
+      </c>
+      <c r="K16" s="2">
+        <f t="shared" si="1"/>
+        <v>54.208694347731445</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="3">
         <v>3</v>
       </c>
@@ -10473,8 +10793,25 @@
       <c r="E17" s="2">
         <v>273.60207767388766</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="G17" s="3">
+        <v>3</v>
+      </c>
+      <c r="H17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I17" s="6">
+        <v>0.32386725675807365</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" si="0"/>
+        <v>2105.4190765331027</v>
+      </c>
+      <c r="K17" s="2">
+        <f t="shared" si="1"/>
+        <v>38.439186459525516</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="3">
         <v>3</v>
       </c>
@@ -10490,8 +10827,25 @@
       <c r="E18" s="2">
         <v>86.702127659574487</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="G18" s="3">
+        <v>3</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="6">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="shared" si="0"/>
+        <v>173.41378771979726</v>
+      </c>
+      <c r="K18" s="2">
+        <f t="shared" si="1"/>
+        <v>12.181045114417433</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="3">
         <v>3</v>
       </c>
@@ -10507,8 +10861,25 @@
       <c r="E19" s="2">
         <v>359.15940252955227</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="G19" s="3">
+        <v>3</v>
+      </c>
+      <c r="H19" s="3">
+        <v>1</v>
+      </c>
+      <c r="I19" s="6">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="2">
+        <f t="shared" si="1"/>
+        <v>50.459394752771843</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="3">
         <v>3</v>
       </c>
@@ -10524,8 +10895,25 @@
       <c r="E20" s="2">
         <v>36.425436579509373</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="G20" s="3">
+        <v>3</v>
+      </c>
+      <c r="H20" s="3">
+        <v>2</v>
+      </c>
+      <c r="I20" s="6">
+        <v>0.34973847372000699</v>
+      </c>
+      <c r="J20" s="2">
+        <f t="shared" si="0"/>
+        <v>103.6297832574208</v>
+      </c>
+      <c r="K20" s="2">
+        <f t="shared" si="1"/>
+        <v>5.1175201608602867</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="3">
         <v>3</v>
       </c>
@@ -10541,8 +10929,25 @@
       <c r="E21" s="2">
         <v>30.199458425022588</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="G21" s="3">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3">
+        <v>3</v>
+      </c>
+      <c r="I21" s="6">
+        <v>0.36832865758721517</v>
+      </c>
+      <c r="J21" s="2">
+        <f t="shared" si="0"/>
+        <v>184.32667929398647</v>
+      </c>
+      <c r="K21" s="2">
+        <f t="shared" si="1"/>
+        <v>4.2428135898871568</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="3">
         <v>3</v>
       </c>
@@ -10558,8 +10963,25 @@
       <c r="E22" s="2">
         <v>30.306610320086431</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="G22" s="3">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3">
+        <v>4</v>
+      </c>
+      <c r="I22" s="6">
+        <v>0.39177544588705399</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" si="0"/>
+        <v>168.48990695973532</v>
+      </c>
+      <c r="K22" s="2">
+        <f t="shared" si="1"/>
+        <v>4.2578676849030579</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="3">
         <v>3</v>
       </c>
@@ -10575,8 +10997,25 @@
       <c r="E23" s="2">
         <v>15.963577662615362</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="G23" s="3">
+        <v>3</v>
+      </c>
+      <c r="H23" s="3">
+        <v>5</v>
+      </c>
+      <c r="I23" s="6">
+        <v>0.41759909003732276</v>
+      </c>
+      <c r="J23" s="2">
+        <f t="shared" si="0"/>
+        <v>91.20604043319878</v>
+      </c>
+      <c r="K23" s="2">
+        <f t="shared" si="1"/>
+        <v>2.2427714860622658</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="3">
         <v>3</v>
       </c>
@@ -10592,8 +11031,25 @@
       <c r="E24" s="2">
         <v>31.40088353415549</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="G24" s="3">
+        <v>3</v>
+      </c>
+      <c r="H24" s="3">
+        <v>6</v>
+      </c>
+      <c r="I24" s="6">
+        <v>0.44616140577149882</v>
+      </c>
+      <c r="J24" s="2">
+        <f t="shared" si="0"/>
+        <v>30.881238154241959</v>
+      </c>
+      <c r="K24" s="2">
+        <f t="shared" si="1"/>
+        <v>4.411605450605995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="3">
         <v>4</v>
       </c>
@@ -10609,8 +11065,25 @@
       <c r="E25" s="2">
         <v>212.45549307669648</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="G25" s="3">
+        <v>4</v>
+      </c>
+      <c r="H25" s="3">
+        <v>-3</v>
+      </c>
+      <c r="I25" s="6">
+        <v>0.43667048184201473</v>
+      </c>
+      <c r="J25" s="2">
+        <f t="shared" si="0"/>
+        <v>529.8111797369346</v>
+      </c>
+      <c r="K25" s="2">
+        <f t="shared" si="1"/>
+        <v>29.848517168278008</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="3">
         <v>4</v>
       </c>
@@ -10626,8 +11099,25 @@
       <c r="E26" s="2">
         <v>328.02711005856906</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="G26" s="3">
+        <v>4</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-2</v>
+      </c>
+      <c r="I26" s="6">
+        <v>0.43188534077043261</v>
+      </c>
+      <c r="J26" s="2">
+        <f t="shared" si="0"/>
+        <v>1832.2634310084204</v>
+      </c>
+      <c r="K26" s="2">
+        <f t="shared" si="1"/>
+        <v>46.085524475986233</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="3">
         <v>4</v>
       </c>
@@ -10643,8 +11133,25 @@
       <c r="E27" s="2">
         <v>287.44993916608428</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="G27" s="3">
+        <v>4</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I27" s="6">
+        <v>0.43146721383800929</v>
+      </c>
+      <c r="J27" s="2">
+        <f t="shared" si="0"/>
+        <v>510.27274629980116</v>
+      </c>
+      <c r="K27" s="2">
+        <f t="shared" si="1"/>
+        <v>40.384714558177933</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="3">
         <v>4</v>
       </c>
@@ -10660,8 +11167,25 @@
       <c r="E28" s="2">
         <v>22.441138013706283</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="G28" s="3">
+        <v>4</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0</v>
+      </c>
+      <c r="I28" s="6">
+        <v>0.43506536697007098</v>
+      </c>
+      <c r="J28" s="2">
+        <f t="shared" si="0"/>
+        <v>262.78099339222189</v>
+      </c>
+      <c r="K28" s="2">
+        <f t="shared" si="1"/>
+        <v>3.1528236035582178</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="3">
         <v>4</v>
       </c>
@@ -10677,8 +11201,25 @@
       <c r="E29" s="2">
         <v>58.704892922789519</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="G29" s="3">
+        <v>4</v>
+      </c>
+      <c r="H29" s="3">
+        <v>1</v>
+      </c>
+      <c r="I29" s="6">
+        <v>0.44309141269042895</v>
+      </c>
+      <c r="J29" s="2">
+        <f t="shared" si="0"/>
+        <v>51.891330040617284</v>
+      </c>
+      <c r="K29" s="2">
+        <f t="shared" si="1"/>
+        <v>8.2476286157272529</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="3">
         <v>4</v>
       </c>
@@ -10694,8 +11235,25 @@
       <c r="E30" s="2">
         <v>38.153285273121625</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="G30" s="3">
+        <v>4</v>
+      </c>
+      <c r="H30" s="3">
+        <v>2</v>
+      </c>
+      <c r="I30" s="6">
+        <v>0.45623971631770233</v>
+      </c>
+      <c r="J30" s="2">
+        <f t="shared" si="0"/>
+        <v>97.378254120417367</v>
+      </c>
+      <c r="K30" s="2">
+        <f t="shared" si="1"/>
+        <v>5.3602708690138012</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="3">
         <v>4</v>
       </c>
@@ -10711,8 +11269,25 @@
       <c r="E31" s="2">
         <v>30.484739999999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="G31" s="3">
+        <v>4</v>
+      </c>
+      <c r="H31" s="3">
+        <v>3</v>
+      </c>
+      <c r="I31" s="6">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="2">
+        <f t="shared" si="1"/>
+        <v>4.282893664378018</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="3">
         <v>4</v>
       </c>
@@ -10728,8 +11303,25 @@
       <c r="E32" s="2">
         <v>12.392549533482812</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="G32" s="3">
+        <v>4</v>
+      </c>
+      <c r="H32" s="3">
+        <v>4</v>
+      </c>
+      <c r="I32" s="6">
+        <v>0.49272653618550721</v>
+      </c>
+      <c r="J32" s="2">
+        <f t="shared" si="0"/>
+        <v>9.1406012445188178</v>
+      </c>
+      <c r="K32" s="2">
+        <f t="shared" si="1"/>
+        <v>1.7410669037178701</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="3">
         <v>4</v>
       </c>
@@ -10745,8 +11337,25 @@
       <c r="E33" s="2">
         <v>11.422694808851427</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="G33" s="3">
+        <v>4</v>
+      </c>
+      <c r="H33" s="3">
+        <v>5</v>
+      </c>
+      <c r="I33" s="6">
+        <v>0.51435757590665054</v>
+      </c>
+      <c r="J33" s="2">
+        <f t="shared" si="0"/>
+        <v>17.11796340576204</v>
+      </c>
+      <c r="K33" s="2">
+        <f t="shared" si="1"/>
+        <v>1.6048090692901908</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="3">
         <v>4</v>
       </c>
@@ -10762,8 +11371,25 @@
       <c r="E34" s="2">
         <v>49.638278880554907</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="G34" s="3">
+        <v>4</v>
+      </c>
+      <c r="H34" s="3">
+        <v>6</v>
+      </c>
+      <c r="I34" s="6">
+        <v>0.53945835340385007</v>
+      </c>
+      <c r="J34" s="2">
+        <f t="shared" si="0"/>
+        <v>6.3398477142142653</v>
+      </c>
+      <c r="K34" s="2">
+        <f t="shared" si="1"/>
+        <v>6.9738324856356924</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="3">
         <v>5</v>
       </c>
@@ -10779,8 +11405,25 @@
       <c r="E35" s="2">
         <v>136.57113947151072</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="G35" s="3">
+        <v>5</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-3</v>
+      </c>
+      <c r="I35" s="6">
+        <v>0.54113245597020643</v>
+      </c>
+      <c r="J35" s="2">
+        <f t="shared" si="0"/>
+        <v>243.22716767869665</v>
+      </c>
+      <c r="K35" s="2">
+        <f t="shared" si="1"/>
+        <v>19.187293970013194</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="3">
         <v>5</v>
       </c>
@@ -10796,8 +11439,25 @@
       <c r="E36" s="2">
         <v>52.240909784938829</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="G36" s="3">
+        <v>5</v>
+      </c>
+      <c r="H36" s="3">
+        <v>-2</v>
+      </c>
+      <c r="I36" s="6">
+        <v>0.53869425710269536</v>
+      </c>
+      <c r="J36" s="2">
+        <f t="shared" si="0"/>
+        <v>266.05629507740946</v>
+      </c>
+      <c r="K36" s="2">
+        <f t="shared" si="1"/>
+        <v>7.3394840021354337</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="3">
         <v>5</v>
       </c>
@@ -10813,8 +11473,25 @@
       <c r="E37" s="2">
         <v>21.388567198979221</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="G37" s="3">
+        <v>5</v>
+      </c>
+      <c r="H37" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I37" s="6">
+        <v>0.54012695627595519</v>
+      </c>
+      <c r="J37" s="2">
+        <f t="shared" si="0"/>
+        <v>56.033381226306552</v>
+      </c>
+      <c r="K37" s="2">
+        <f t="shared" si="1"/>
+        <v>3.0049447345337899</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="3">
         <v>5</v>
       </c>
@@ -10830,8 +11507,25 @@
       <c r="E38" s="2">
         <v>4.6769971645152859</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="G38" s="3">
+        <v>5</v>
+      </c>
+      <c r="H38" s="3">
+        <v>0</v>
+      </c>
+      <c r="I38" s="6">
+        <v>0.54370092037490203</v>
+      </c>
+      <c r="J38" s="2">
+        <f t="shared" si="0"/>
+        <v>42.71055941674657</v>
+      </c>
+      <c r="K38" s="2">
+        <f t="shared" si="1"/>
+        <v>0.65708552948840881</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="3">
         <v>5</v>
       </c>
@@ -10847,8 +11541,25 @@
       <c r="E39" s="2">
         <v>16.167444396882999</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="G39" s="3">
+        <v>5</v>
+      </c>
+      <c r="H39" s="3">
+        <v>1</v>
+      </c>
+      <c r="I39" s="6">
+        <v>0.55141360694549746</v>
+      </c>
+      <c r="J39" s="2">
+        <f t="shared" si="0"/>
+        <v>40.560952543442404</v>
+      </c>
+      <c r="K39" s="2">
+        <f t="shared" si="1"/>
+        <v>2.2714133424327745</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="3">
         <v>6</v>
       </c>
@@ -10864,8 +11575,25 @@
       <c r="E40" s="2">
         <v>17.422251674568013</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="G40" s="3">
+        <v>6</v>
+      </c>
+      <c r="H40" s="3">
+        <v>-4</v>
+      </c>
+      <c r="I40" s="6">
+        <v>0.65229693038596093</v>
+      </c>
+      <c r="J40" s="2">
+        <f t="shared" si="0"/>
+        <v>34.879796621389744</v>
+      </c>
+      <c r="K40" s="2">
+        <f t="shared" si="1"/>
+        <v>2.4477050260624384</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="3">
         <v>6</v>
       </c>
@@ -10881,8 +11609,25 @@
       <c r="E41" s="2">
         <v>14.484404229024584</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="G41" s="3">
+        <v>6</v>
+      </c>
+      <c r="H41" s="3">
+        <v>-3</v>
+      </c>
+      <c r="I41" s="6">
+        <v>0.64792489969455835</v>
+      </c>
+      <c r="J41" s="2">
+        <f t="shared" si="0"/>
+        <v>35.272603948167045</v>
+      </c>
+      <c r="K41" s="2">
+        <f t="shared" si="1"/>
+        <v>2.0349579200865602</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="3">
         <v>6</v>
       </c>
@@ -10898,8 +11643,25 @@
       <c r="E42" s="2">
         <v>18.700644196054352</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="G42" s="3">
+        <v>6</v>
+      </c>
+      <c r="H42" s="3">
+        <v>-2</v>
+      </c>
+      <c r="I42" s="6">
+        <v>0.64649758477473851</v>
+      </c>
+      <c r="J42" s="2">
+        <f t="shared" si="0"/>
+        <v>14.742129860626703</v>
+      </c>
+      <c r="K42" s="2">
+        <f t="shared" si="1"/>
+        <v>2.6273102721908979</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="3">
         <v>6</v>
       </c>
@@ -10915,8 +11677,25 @@
       <c r="E43" s="2">
         <v>15.578973700295608</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="G43" s="3">
+        <v>6</v>
+      </c>
+      <c r="H43" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I43" s="6">
+        <v>0.64842732823347293</v>
+      </c>
+      <c r="J43" s="2">
+        <f t="shared" si="0"/>
+        <v>11.892139372723072</v>
+      </c>
+      <c r="K43" s="2">
+        <f t="shared" si="1"/>
+        <v>2.1887373078631418</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="3">
         <v>6</v>
       </c>
@@ -10932,8 +11711,25 @@
       <c r="E44" s="2">
         <v>6.5283842913362999</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="G44" s="3">
+        <v>6</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="6">
+        <v>0.65283842913362999</v>
+      </c>
+      <c r="J44" s="2">
+        <f t="shared" si="0"/>
+        <v>11.747870241317047</v>
+      </c>
+      <c r="K44" s="2">
+        <f t="shared" si="1"/>
+        <v>0.91719252714601529</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="3">
         <v>6</v>
       </c>
@@ -10949,8 +11745,25 @@
       <c r="E45" s="2">
         <v>7.8254971115505407</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="G45" s="3">
+        <v>6</v>
+      </c>
+      <c r="H45" s="3">
+        <v>1</v>
+      </c>
+      <c r="I45" s="6">
+        <v>0.66046725884028501</v>
+      </c>
+      <c r="J45" s="2">
+        <f t="shared" si="0"/>
+        <v>14.952218690252527</v>
+      </c>
+      <c r="K45" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0994278448715094</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="3">
         <v>6</v>
       </c>
@@ -10966,8 +11779,25 @@
       <c r="E46" s="2">
         <v>6.1248000000000005</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="G46" s="3">
+        <v>6</v>
+      </c>
+      <c r="H46" s="3">
+        <v>2</v>
+      </c>
+      <c r="I46" s="6">
+        <v>0</v>
+      </c>
+      <c r="J46" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K46" s="2">
+        <f t="shared" si="1"/>
+        <v>0.86049174490523739</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="3">
         <v>6</v>
       </c>
@@ -10983,8 +11813,25 @@
       <c r="E47" s="2">
         <v>4.3969806146679273</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="G47" s="3">
+        <v>6</v>
+      </c>
+      <c r="H47" s="3">
+        <v>3</v>
+      </c>
+      <c r="I47" s="6">
+        <v>0.68408945820278377</v>
+      </c>
+      <c r="J47" s="2">
+        <f t="shared" si="0"/>
+        <v>12.148988035765871</v>
+      </c>
+      <c r="K47" s="2">
+        <f t="shared" si="1"/>
+        <v>0.61774515436097632</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="3">
         <v>6</v>
       </c>
@@ -11000,8 +11847,25 @@
       <c r="E48" s="2">
         <v>5.7928339608586477</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="G48" s="3">
+        <v>6</v>
+      </c>
+      <c r="H48" s="3">
+        <v>4</v>
+      </c>
+      <c r="I48" s="6">
+        <v>0.70028589245122541</v>
+      </c>
+      <c r="J48" s="2">
+        <f t="shared" si="0"/>
+        <v>11.393939596551407</v>
+      </c>
+      <c r="K48" s="2">
+        <f t="shared" si="1"/>
+        <v>0.81385282832510053</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="3">
         <v>7</v>
       </c>
@@ -11017,8 +11881,25 @@
       <c r="E49" s="2">
         <v>19.450183276261757</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="G49" s="3">
+        <v>7</v>
+      </c>
+      <c r="H49" s="3">
+        <v>-4</v>
+      </c>
+      <c r="I49" s="6">
+        <v>0.7572805224299487</v>
+      </c>
+      <c r="J49" s="2">
+        <f t="shared" si="0"/>
+        <v>99.367828833696379</v>
+      </c>
+      <c r="K49" s="2">
+        <f t="shared" si="1"/>
+        <v>2.7326152929266505</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="3">
         <v>7</v>
       </c>
@@ -11034,8 +11915,25 @@
       <c r="E50" s="2">
         <v>23.507247763659102</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="G50" s="3">
+        <v>7</v>
+      </c>
+      <c r="H50" s="3">
+        <v>-3</v>
+      </c>
+      <c r="I50" s="6">
+        <v>0.75444431494089825</v>
+      </c>
+      <c r="J50" s="2">
+        <f t="shared" si="0"/>
+        <v>66.052091973846515</v>
+      </c>
+      <c r="K50" s="2">
+        <f t="shared" si="1"/>
+        <v>3.302604598692326</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="3">
         <v>7</v>
       </c>
@@ -11051,8 +11949,25 @@
       <c r="E51" s="2">
         <v>62.136856466970897</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="G51" s="3">
+        <v>7</v>
+      </c>
+      <c r="H51" s="3">
+        <v>-2</v>
+      </c>
+      <c r="I51" s="6">
+        <v>0.75426490834861581</v>
+      </c>
+      <c r="J51" s="2">
+        <f t="shared" si="0"/>
+        <v>17.937936148719665</v>
+      </c>
+      <c r="K51" s="2">
+        <f t="shared" si="1"/>
+        <v>8.7297955923769059</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="3">
         <v>7</v>
       </c>
@@ -11068,8 +11983,25 @@
       <c r="E52" s="2">
         <v>9.5345165616319658</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="G52" s="3">
+        <v>7</v>
+      </c>
+      <c r="H52" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I52" s="6">
+        <v>0.75628887838736603</v>
+      </c>
+      <c r="J52" s="2">
+        <f t="shared" si="0"/>
+        <v>12.812926025966039</v>
+      </c>
+      <c r="K52" s="2">
+        <f t="shared" si="1"/>
+        <v>1.3395331754419042</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="3">
         <v>7</v>
       </c>
@@ -11085,8 +12017,25 @@
       <c r="E53" s="2">
         <v>2.8246748694830637</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="G53" s="3">
+        <v>7</v>
+      </c>
+      <c r="H53" s="3">
+        <v>0</v>
+      </c>
+      <c r="I53" s="6">
+        <v>0.76030831903585805</v>
+      </c>
+      <c r="J53" s="2">
+        <f t="shared" si="0"/>
+        <v>7.9369429441988482</v>
+      </c>
+      <c r="K53" s="2">
+        <f t="shared" si="1"/>
+        <v>0.39684714720994241</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="3">
         <v>8</v>
       </c>
@@ -11102,8 +12051,25 @@
       <c r="E54" s="2">
         <v>5.3202239999999996</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="G54" s="3">
+        <v>8</v>
+      </c>
+      <c r="H54" s="3">
+        <v>0</v>
+      </c>
+      <c r="I54" s="6">
+        <v>0</v>
+      </c>
+      <c r="J54" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K54" s="2">
+        <f t="shared" si="1"/>
+        <v>0.74745442023359487</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="3">
         <v>9</v>
       </c>
@@ -11119,8 +12085,25 @@
       <c r="E55" s="2">
         <v>49.646470899331305</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="G55" s="3">
+        <v>9</v>
+      </c>
+      <c r="H55" s="3">
+        <v>-5</v>
+      </c>
+      <c r="I55" s="6">
+        <v>0.97500051282037792</v>
+      </c>
+      <c r="J55" s="2">
+        <f t="shared" si="0"/>
+        <v>37.199911505183465</v>
+      </c>
+      <c r="K55" s="2">
+        <f t="shared" si="1"/>
+        <v>6.9749834072218988</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="3">
         <v>9</v>
       </c>
@@ -11136,8 +12119,25 @@
       <c r="E56" s="2">
         <v>39.697632289716815</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="G56" s="3">
+        <v>9</v>
+      </c>
+      <c r="H56" s="3">
+        <v>-4</v>
+      </c>
+      <c r="I56" s="6">
+        <v>0.97251118245498847</v>
+      </c>
+      <c r="J56" s="2">
+        <f t="shared" si="0"/>
+        <v>31.418456898248927</v>
+      </c>
+      <c r="K56" s="2">
+        <f t="shared" si="1"/>
+        <v>5.5772408695116438</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="3">
         <v>9</v>
       </c>
@@ -11153,8 +12153,25 @@
       <c r="E57" s="2">
         <v>78.321600000000004</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="G57" s="3">
+        <v>9</v>
+      </c>
+      <c r="H57" s="3">
+        <v>-3</v>
+      </c>
+      <c r="I57" s="14">
+        <v>0</v>
+      </c>
+      <c r="J57" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K57" s="2">
+        <f t="shared" si="1"/>
+        <v>11.003639342961412</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="3">
         <v>9</v>
       </c>
@@ -11170,8 +12187,25 @@
       <c r="E58" s="2">
         <v>18.840041567700833</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="G58" s="3">
+        <v>9</v>
+      </c>
+      <c r="H58" s="3">
+        <v>-2</v>
+      </c>
+      <c r="I58" s="14">
+        <v>0.97280881986133327</v>
+      </c>
+      <c r="J58" s="2">
+        <f t="shared" si="0"/>
+        <v>9.1272228693058484</v>
+      </c>
+      <c r="K58" s="2">
+        <f t="shared" si="1"/>
+        <v>2.6468946320986961</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="3">
         <v>9</v>
       </c>
@@ -11187,8 +12221,25 @@
       <c r="E59" s="2">
         <v>19.580399999999997</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="G59" s="3">
+        <v>9</v>
+      </c>
+      <c r="H59" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I59" s="6">
+        <v>0</v>
+      </c>
+      <c r="J59" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K59" s="2">
+        <f t="shared" si="1"/>
+        <v>2.7509098357403525</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="3">
         <v>9</v>
       </c>
@@ -11204,12 +12255,6158 @@
       <c r="E60" s="2">
         <v>20.00470588235294</v>
       </c>
+      <c r="G60" s="3">
+        <v>9</v>
+      </c>
+      <c r="H60" s="3">
+        <v>0</v>
+      </c>
+      <c r="I60" s="6">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="J60" s="2">
+        <f t="shared" si="0"/>
+        <v>4.7778871572520423</v>
+      </c>
+      <c r="K60" s="2">
+        <f t="shared" si="1"/>
+        <v>2.810521857207084</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="25">
+        <v>1</v>
+      </c>
+      <c r="B2" s="25">
+        <v>-1</v>
+      </c>
+      <c r="C2" s="26">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="D2" s="26">
+        <v>-4.2999999999999997E-2</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="27">
+        <v>726</v>
+      </c>
+      <c r="G2" s="27">
+        <v>63</v>
+      </c>
+      <c r="H2" s="28">
+        <v>73.086368150563572</v>
+      </c>
+      <c r="I2" s="27">
+        <v>86.340368765170055</v>
+      </c>
+      <c r="J2" s="27">
+        <v>3.6682485965448484</v>
+      </c>
+      <c r="K2" s="6"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="25">
+        <v>1</v>
+      </c>
+      <c r="B3" s="25">
+        <v>0</v>
+      </c>
+      <c r="C3" s="26">
+        <v>0.109</v>
+      </c>
+      <c r="D3" s="26">
+        <v>0</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="27">
+        <v>180818</v>
+      </c>
+      <c r="G3" s="27">
+        <v>1759</v>
+      </c>
+      <c r="H3" s="28">
+        <v>0.39364391477067534</v>
+      </c>
+      <c r="I3" s="27">
+        <v>100</v>
+      </c>
+      <c r="J3" s="27">
+        <v>0.48522348106390112</v>
+      </c>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="25">
+        <v>1</v>
+      </c>
+      <c r="B4" s="25">
+        <v>1</v>
+      </c>
+      <c r="C4" s="26">
+        <v>0.114</v>
+      </c>
+      <c r="D4" s="26">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="27">
+        <v>228</v>
+      </c>
+      <c r="G4" s="27">
+        <v>28</v>
+      </c>
+      <c r="H4" s="28">
+        <v>58.027363723936439</v>
+      </c>
+      <c r="I4" s="27">
+        <v>43.113297598946481</v>
+      </c>
+      <c r="J4" s="27">
+        <v>2.5706685527169415</v>
+      </c>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="25">
+        <v>1</v>
+      </c>
+      <c r="B5" s="25">
+        <v>2</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="27">
+        <v>0</v>
+      </c>
+      <c r="G5" s="27">
+        <v>1</v>
+      </c>
+      <c r="H5" s="28">
+        <v>110.05499999999999</v>
+      </c>
+      <c r="I5" s="27">
+        <v>0</v>
+      </c>
+      <c r="J5" s="27">
+        <v>3.9321700168311624</v>
+      </c>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="25">
+        <v>1</v>
+      </c>
+      <c r="B6" s="25">
+        <v>3</v>
+      </c>
+      <c r="C6" s="26">
+        <v>0.128</v>
+      </c>
+      <c r="D6" s="26">
+        <v>0.13</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="27">
+        <v>3.8</v>
+      </c>
+      <c r="G6" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="H6" s="28">
+        <v>144.59166202461421</v>
+      </c>
+      <c r="I6" s="27">
+        <v>8.7859923639034196</v>
+      </c>
+      <c r="J6" s="27">
+        <v>0.22824560304695729</v>
+      </c>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="25">
+        <v>2</v>
+      </c>
+      <c r="B7" s="25">
+        <v>-2</v>
+      </c>
+      <c r="C7" s="26">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="D7" s="26">
+        <v>-8.6999999999999994E-2</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="27">
+        <v>49.2</v>
+      </c>
+      <c r="G7" s="27">
+        <v>3.5</v>
+      </c>
+      <c r="H7" s="28">
+        <v>46.738216409341391</v>
+      </c>
+      <c r="I7" s="27">
+        <v>17.97405296937761</v>
+      </c>
+      <c r="J7" s="27">
+        <v>0.62833824290782248</v>
+      </c>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="25">
+        <v>2</v>
+      </c>
+      <c r="B8" s="25">
+        <v>-1</v>
+      </c>
+      <c r="C8" s="26">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="D8" s="26">
+        <v>-4.3999999999999997E-2</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="27">
+        <v>1818</v>
+      </c>
+      <c r="G8" s="27">
+        <v>20</v>
+      </c>
+      <c r="H8" s="28">
+        <v>22.640601940905796</v>
+      </c>
+      <c r="I8" s="27">
+        <v>76.044589927807394</v>
+      </c>
+      <c r="J8" s="27">
+        <v>0.41714295349964509</v>
+      </c>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="25">
+        <v>2</v>
+      </c>
+      <c r="B9" s="25">
+        <v>0</v>
+      </c>
+      <c r="C9" s="26">
+        <v>0.218</v>
+      </c>
+      <c r="D9" s="26">
+        <v>0</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="27">
+        <v>10200</v>
+      </c>
+      <c r="G9" s="27">
+        <v>174</v>
+      </c>
+      <c r="H9" s="28">
+        <v>0.57671957671957674</v>
+      </c>
+      <c r="I9" s="27">
+        <v>28.74814528767951</v>
+      </c>
+      <c r="J9" s="27">
+        <v>0.24416786786493946</v>
+      </c>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="25">
+        <v>2</v>
+      </c>
+      <c r="B10" s="25">
+        <v>1</v>
+      </c>
+      <c r="C10" s="26">
+        <v>0.224</v>
+      </c>
+      <c r="D10" s="26">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="27">
+        <v>550</v>
+      </c>
+      <c r="G10" s="27">
+        <v>10</v>
+      </c>
+      <c r="H10" s="28">
+        <v>20.186984281425783</v>
+      </c>
+      <c r="I10" s="27">
+        <v>39.495213463874236</v>
+      </c>
+      <c r="J10" s="27">
+        <v>0.35743003169957449</v>
+      </c>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="25">
+        <v>2</v>
+      </c>
+      <c r="B11" s="25">
+        <v>2</v>
+      </c>
+      <c r="C11" s="26">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="D11" s="26">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="27">
+        <v>112</v>
+      </c>
+      <c r="G11" s="27">
+        <v>3</v>
+      </c>
+      <c r="H11" s="28">
+        <v>38.60675781767624</v>
+      </c>
+      <c r="I11" s="27">
+        <v>24.647227584052974</v>
+      </c>
+      <c r="J11" s="27">
+        <v>0.32791544637396131</v>
+      </c>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="25">
+        <v>2</v>
+      </c>
+      <c r="B12" s="25">
+        <v>3</v>
+      </c>
+      <c r="C12" s="26">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="D12" s="26">
+        <v>0.129</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="27">
+        <v>27</v>
+      </c>
+      <c r="G12" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="H12" s="28">
+        <v>56.444057315716542</v>
+      </c>
+      <c r="I12" s="27">
+        <v>14.632495271463815</v>
+      </c>
+      <c r="J12" s="27">
+        <v>5.4094436873383306E-2</v>
+      </c>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="25">
+        <v>2</v>
+      </c>
+      <c r="B13" s="25">
+        <v>4</v>
+      </c>
+      <c r="C13" s="26">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="D13" s="26">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="27">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G13" s="27">
+        <v>0.4</v>
+      </c>
+      <c r="H13" s="28">
+        <v>73.827249625217519</v>
+      </c>
+      <c r="I13" s="27">
+        <v>9.2223726993889876</v>
+      </c>
+      <c r="J13" s="27">
+        <v>0.22225773131622403</v>
+      </c>
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="25">
+        <v>2</v>
+      </c>
+      <c r="B14" s="25">
+        <v>5</v>
+      </c>
+      <c r="C14" s="26">
+        <v>0.25</v>
+      </c>
+      <c r="D14" s="26">
+        <v>0.214</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="27">
+        <v>2.6</v>
+      </c>
+      <c r="G14" s="27">
+        <v>0.7</v>
+      </c>
+      <c r="H14" s="28">
+        <v>86.837099057791036</v>
+      </c>
+      <c r="I14" s="27">
+        <v>5.6320529032754854</v>
+      </c>
+      <c r="J14" s="27">
+        <v>0.71302591927757952</v>
+      </c>
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="25">
+        <v>2</v>
+      </c>
+      <c r="B15" s="25">
+        <v>6</v>
+      </c>
+      <c r="C15" s="26">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="D15" s="26">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="27">
+        <v>1.2</v>
+      </c>
+      <c r="G15" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="H15" s="28">
+        <v>100.44639076736266</v>
+      </c>
+      <c r="I15" s="27">
+        <v>4.1151454450436953</v>
+      </c>
+      <c r="J15" s="27">
+        <v>0.32971964921670555</v>
+      </c>
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="25">
+        <v>3</v>
+      </c>
+      <c r="B16" s="25">
+        <v>-2</v>
+      </c>
+      <c r="C16" s="26">
+        <v>0.314</v>
+      </c>
+      <c r="D16" s="26">
+        <v>-8.6999999999999994E-2</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="27">
+        <v>305</v>
+      </c>
+      <c r="G16" s="27">
+        <v>15</v>
+      </c>
+      <c r="H16" s="28">
+        <v>25.723075447403961</v>
+      </c>
+      <c r="I16" s="27">
+        <v>33.200051983953358</v>
+      </c>
+      <c r="J16" s="27">
+        <v>0.80659657312936939</v>
+      </c>
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="25">
+        <v>3</v>
+      </c>
+      <c r="B17" s="25">
+        <v>-1</v>
+      </c>
+      <c r="C17" s="26">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="D17" s="26">
+        <v>-4.2999999999999997E-2</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="27">
+        <v>1205</v>
+      </c>
+      <c r="G17" s="27">
+        <v>22</v>
+      </c>
+      <c r="H17" s="28">
+        <v>12.436458076085804</v>
+      </c>
+      <c r="I17" s="27">
+        <v>45.884845826624534</v>
+      </c>
+      <c r="J17" s="27">
+        <v>0.41697123267269526</v>
+      </c>
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="25">
+        <v>3</v>
+      </c>
+      <c r="B18" s="25">
+        <v>0</v>
+      </c>
+      <c r="C18" s="26">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="D18" s="26">
+        <v>0</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="27">
+        <v>1566</v>
+      </c>
+      <c r="G18" s="27">
+        <v>110</v>
+      </c>
+      <c r="H18" s="28">
+        <v>0.78820116054158607</v>
+      </c>
+      <c r="I18" s="27">
+        <v>13.168666892278702</v>
+      </c>
+      <c r="J18" s="27">
+        <v>0.45465255762830814</v>
+      </c>
+      <c r="K18" s="6"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="25">
+        <v>3</v>
+      </c>
+      <c r="B19" s="25">
+        <v>1</v>
+      </c>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="27">
+        <v>0</v>
+      </c>
+      <c r="G19" s="27">
+        <v>31</v>
+      </c>
+      <c r="H19" s="28">
+        <v>11.585787178372655</v>
+      </c>
+      <c r="I19" s="27">
+        <v>0</v>
+      </c>
+      <c r="J19" s="27">
+        <v>7.1034776520217076</v>
+      </c>
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="25">
+        <v>3</v>
+      </c>
+      <c r="B20" s="25">
+        <v>2</v>
+      </c>
+      <c r="C20" s="26">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="D20" s="26">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="27">
+        <v>32.4</v>
+      </c>
+      <c r="G20" s="27">
+        <v>1.6</v>
+      </c>
+      <c r="H20" s="28">
+        <v>22.765897862193356</v>
+      </c>
+      <c r="I20" s="27">
+        <v>10.179871475486358</v>
+      </c>
+      <c r="J20" s="27">
+        <v>0.24832603982188947</v>
+      </c>
+      <c r="K20" s="6"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="25">
+        <v>3</v>
+      </c>
+      <c r="B21" s="25">
+        <v>3</v>
+      </c>
+      <c r="C21" s="26">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="D21" s="26">
+        <v>0.129</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="27">
+        <v>39.1</v>
+      </c>
+      <c r="G21" s="27">
+        <v>0.9</v>
+      </c>
+      <c r="H21" s="28">
+        <v>33.554953805580652</v>
+      </c>
+      <c r="I21" s="27">
+        <v>13.576696184786135</v>
+      </c>
+      <c r="J21" s="27">
+        <v>0.15536458131425127</v>
+      </c>
+      <c r="K21" s="6"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="25">
+        <v>3</v>
+      </c>
+      <c r="B22" s="25">
+        <v>4</v>
+      </c>
+      <c r="C22" s="26">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="D22" s="26">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="27">
+        <v>27.7</v>
+      </c>
+      <c r="G22" s="27">
+        <v>0.7</v>
+      </c>
+      <c r="H22" s="28">
+        <v>43.295157600123481</v>
+      </c>
+      <c r="I22" s="27">
+        <v>12.980366210540259</v>
+      </c>
+      <c r="J22" s="27">
+        <v>0.16298856077434251</v>
+      </c>
+      <c r="K22" s="6"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="25">
+        <v>3</v>
+      </c>
+      <c r="B23" s="25">
+        <v>5</v>
+      </c>
+      <c r="C23" s="26">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="D23" s="26">
+        <v>0.215</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="27">
+        <v>12.2</v>
+      </c>
+      <c r="G23" s="27">
+        <v>0.3</v>
+      </c>
+      <c r="H23" s="28">
+        <v>53.211925542051205</v>
+      </c>
+      <c r="I23" s="27">
+        <v>9.5501853611958101</v>
+      </c>
+      <c r="J23" s="27">
+        <v>0.11670720670112492</v>
+      </c>
+      <c r="K23" s="6"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="25">
+        <v>3</v>
+      </c>
+      <c r="B24" s="25">
+        <v>6</v>
+      </c>
+      <c r="C24" s="26">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="D24" s="26">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="27">
+        <v>3.5</v>
+      </c>
+      <c r="G24" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="H24" s="28">
+        <v>62.80176706831098</v>
+      </c>
+      <c r="I24" s="27">
+        <v>5.5570890000288777</v>
+      </c>
+      <c r="J24" s="27">
+        <v>0.38368903023348422</v>
+      </c>
+      <c r="K24" s="6"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="25">
+        <v>4</v>
+      </c>
+      <c r="B25" s="25">
+        <v>-3</v>
+      </c>
+      <c r="C25" s="26">
+        <v>0.41664868963191598</v>
+      </c>
+      <c r="D25" s="26">
+        <v>-0.13070952199493599</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="27">
+        <v>142</v>
+      </c>
+      <c r="G25" s="27">
+        <v>8</v>
+      </c>
+      <c r="H25" s="28">
+        <v>26.556936634587061</v>
+      </c>
+      <c r="I25" s="27">
+        <v>23.017627587067583</v>
+      </c>
+      <c r="J25" s="27">
+        <v>0.639500237442575</v>
+      </c>
+      <c r="K25" s="6"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="25">
+        <v>4</v>
+      </c>
+      <c r="B26" s="25">
+        <v>-2</v>
+      </c>
+      <c r="C26" s="26">
+        <v>0.42296448782651702</v>
+      </c>
+      <c r="D26" s="26">
+        <v>-8.7326912289653599E-2</v>
+      </c>
+      <c r="E26" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="27">
+        <v>755.4</v>
+      </c>
+      <c r="G26" s="27">
+        <v>19</v>
+      </c>
+      <c r="H26" s="28">
+        <v>17.264584739924686</v>
+      </c>
+      <c r="I26" s="27">
+        <v>42.804946338109339</v>
+      </c>
+      <c r="J26" s="27">
+        <v>0.53497700612843224</v>
+      </c>
+      <c r="K26" s="6"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="25">
+        <v>4</v>
+      </c>
+      <c r="B27" s="25">
+        <v>-1</v>
+      </c>
+      <c r="C27" s="26">
+        <v>0.42927871427144199</v>
+      </c>
+      <c r="D27" s="26">
+        <v>-4.3402097767182901E-2</v>
+      </c>
+      <c r="E27" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="27">
+        <v>429.6</v>
+      </c>
+      <c r="G27" s="27">
+        <v>34</v>
+      </c>
+      <c r="H27" s="28">
+        <v>8.4544099754730677</v>
+      </c>
+      <c r="I27" s="27">
+        <v>22.589217478695474</v>
+      </c>
+      <c r="J27" s="27">
+        <v>0.8768742465573518</v>
+      </c>
+      <c r="K27" s="6"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="25">
+        <v>4</v>
+      </c>
+      <c r="B28" s="25">
+        <v>0</v>
+      </c>
+      <c r="C28" s="26">
+        <v>0.43506536697007098</v>
+      </c>
+      <c r="D28" s="26">
+        <v>0</v>
+      </c>
+      <c r="E28" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="27">
+        <v>1917</v>
+      </c>
+      <c r="G28" s="27">
+        <v>23</v>
+      </c>
+      <c r="H28" s="28">
+        <v>0.97570165276983833</v>
+      </c>
+      <c r="I28" s="27">
+        <v>16.210521070965665</v>
+      </c>
+      <c r="J28" s="27">
+        <v>9.6956262937947915E-2</v>
+      </c>
+      <c r="K28" s="6"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="25">
+        <v>4</v>
+      </c>
+      <c r="B29" s="25">
+        <v>1</v>
+      </c>
+      <c r="C29" s="26">
+        <v>0.441</v>
+      </c>
+      <c r="D29" s="26">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="E29" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" s="27">
+        <v>45.3</v>
+      </c>
+      <c r="G29" s="27">
+        <v>7.2</v>
+      </c>
+      <c r="H29" s="28">
+        <v>8.1534573503874324</v>
+      </c>
+      <c r="I29" s="27">
+        <v>7.2035637042103877</v>
+      </c>
+      <c r="J29" s="27">
+        <v>0.55136754347611494</v>
+      </c>
+      <c r="K29" s="6"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="25">
+        <v>4</v>
+      </c>
+      <c r="B30" s="25">
+        <v>2</v>
+      </c>
+      <c r="C30" s="26">
+        <v>0.44821187263523798</v>
+      </c>
+      <c r="D30" s="26">
+        <v>8.5210304391374406E-2</v>
+      </c>
+      <c r="E30" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" s="27">
+        <v>43.6</v>
+      </c>
+      <c r="G30" s="27">
+        <v>2.4</v>
+      </c>
+      <c r="H30" s="28">
+        <v>15.897202197134009</v>
+      </c>
+      <c r="I30" s="27">
+        <v>9.8680420611394517</v>
+      </c>
+      <c r="J30" s="27">
+        <v>0.26795936888368876</v>
+      </c>
+      <c r="K30" s="6"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="25">
+        <v>4</v>
+      </c>
+      <c r="B31" s="25">
+        <v>3</v>
+      </c>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" s="27">
+        <v>0</v>
+      </c>
+      <c r="G31" s="27">
+        <v>1.3</v>
+      </c>
+      <c r="H31" s="28">
+        <v>23.4498</v>
+      </c>
+      <c r="I31" s="27">
+        <v>0</v>
+      </c>
+      <c r="J31" s="27">
+        <v>2.0695153211266684</v>
+      </c>
+      <c r="K31" s="6"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="25">
+        <v>4</v>
+      </c>
+      <c r="B32" s="25">
+        <v>4</v>
+      </c>
+      <c r="C32" s="26">
+        <v>0.461351389362051</v>
+      </c>
+      <c r="D32" s="26">
+        <v>0.17301541837383499</v>
+      </c>
+      <c r="E32" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" s="27">
+        <v>2.1</v>
+      </c>
+      <c r="G32" s="27">
+        <v>0.4</v>
+      </c>
+      <c r="H32" s="28">
+        <v>30.981373833707028</v>
+      </c>
+      <c r="I32" s="27">
+        <v>3.023342726936332</v>
+      </c>
+      <c r="J32" s="27">
+        <v>0.27539462972555961</v>
+      </c>
+      <c r="K32" s="6"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="25">
+        <v>4</v>
+      </c>
+      <c r="B33" s="25">
+        <v>5</v>
+      </c>
+      <c r="C33" s="26">
+        <v>0.46713053711091801</v>
+      </c>
+      <c r="D33" s="26">
+        <v>0.21529695118842501</v>
+      </c>
+      <c r="E33" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" s="27">
+        <v>3.2</v>
+      </c>
+      <c r="G33" s="27">
+        <v>0.3</v>
+      </c>
+      <c r="H33" s="28">
+        <v>38.075649362838092</v>
+      </c>
+      <c r="I33" s="27">
+        <v>4.1373860595504057</v>
+      </c>
+      <c r="J33" s="27">
+        <v>0.18959585340604027</v>
+      </c>
+      <c r="K33" s="6"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="25">
+        <v>4</v>
+      </c>
+      <c r="B34" s="25">
+        <v>6</v>
+      </c>
+      <c r="C34" s="26">
+        <v>0.47343348617997599</v>
+      </c>
+      <c r="D34" s="26">
+        <v>0.25860403945156701</v>
+      </c>
+      <c r="E34" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" s="27">
+        <v>1</v>
+      </c>
+      <c r="G34" s="27">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H34" s="28">
+        <v>45.125708073231728</v>
+      </c>
+      <c r="I34" s="27">
+        <v>2.5179054220153434</v>
+      </c>
+      <c r="J34" s="27">
+        <v>1.1308861861544017</v>
+      </c>
+      <c r="K34" s="6"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="25">
+        <v>5</v>
+      </c>
+      <c r="B35" s="25">
+        <v>-3</v>
+      </c>
+      <c r="C35" s="26">
+        <v>0.52484443626311095</v>
+      </c>
+      <c r="D35" s="26">
+        <v>-0.131767418689161</v>
+      </c>
+      <c r="E35" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="F35" s="27">
+        <v>86.2</v>
+      </c>
+      <c r="G35" s="27">
+        <v>6.8</v>
+      </c>
+      <c r="H35" s="28">
+        <v>20.083991098751579</v>
+      </c>
+      <c r="I35" s="27">
+        <v>15.595741972689106</v>
+      </c>
+      <c r="J35" s="27">
+        <v>0.60346978741545243</v>
+      </c>
+      <c r="K35" s="6"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="25">
+        <v>5</v>
+      </c>
+      <c r="B36" s="25">
+        <v>-2</v>
+      </c>
+      <c r="C36" s="26">
+        <v>0.53165557548445797</v>
+      </c>
+      <c r="D36" s="26">
+        <v>-8.6797763172299494E-2</v>
+      </c>
+      <c r="E36" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="F36" s="27">
+        <v>145</v>
+      </c>
+      <c r="G36" s="27">
+        <v>4</v>
+      </c>
+      <c r="H36" s="28">
+        <v>13.060227446234707</v>
+      </c>
+      <c r="I36" s="27">
+        <v>16.311232175326591</v>
+      </c>
+      <c r="J36" s="27">
+        <v>0.22345194864580709</v>
+      </c>
+      <c r="K36" s="6"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="25">
+        <v>5</v>
+      </c>
+      <c r="B37" s="25">
+        <v>-1</v>
+      </c>
+      <c r="C37" s="26">
+        <v>0.53846462445250898</v>
+      </c>
+      <c r="D37" s="26">
+        <v>-4.2343560421226403E-2</v>
+      </c>
+      <c r="E37" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="F37" s="27">
+        <v>63.4</v>
+      </c>
+      <c r="G37" s="27">
+        <v>3.4</v>
+      </c>
+      <c r="H37" s="28">
+        <v>6.2907550585233007</v>
+      </c>
+      <c r="I37" s="27">
+        <v>7.4855448182685098</v>
+      </c>
+      <c r="J37" s="27">
+        <v>0.19809533213158123</v>
+      </c>
+      <c r="K37" s="6"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="25">
+        <v>5</v>
+      </c>
+      <c r="B38" s="25">
+        <v>0</v>
+      </c>
+      <c r="C38" s="26">
+        <v>0.54370092037490203</v>
+      </c>
+      <c r="D38" s="26">
+        <v>0</v>
+      </c>
+      <c r="E38" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="F38" s="27">
+        <v>260</v>
+      </c>
+      <c r="G38" s="27">
+        <v>4</v>
+      </c>
+      <c r="H38" s="28">
+        <v>1.1692492911288215</v>
+      </c>
+      <c r="I38" s="27">
+        <v>6.535331622553409</v>
+      </c>
+      <c r="J38" s="27">
+        <v>5.0079901887183649E-2</v>
+      </c>
+      <c r="K38" s="6"/>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="25">
+        <v>5</v>
+      </c>
+      <c r="B39" s="25">
+        <v>1</v>
+      </c>
+      <c r="C39" s="26">
+        <v>0.54998281624360101</v>
+      </c>
+      <c r="D39" s="26">
+        <v>3.9697200926526399E-2</v>
+      </c>
+      <c r="E39" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="F39" s="27">
+        <v>50</v>
+      </c>
+      <c r="G39" s="27">
+        <v>2.8</v>
+      </c>
+      <c r="H39" s="28">
+        <v>5.7740872846010713</v>
+      </c>
+      <c r="I39" s="27">
+        <v>6.368748114303342</v>
+      </c>
+      <c r="J39" s="27">
+        <v>0.17589594674957049</v>
+      </c>
+      <c r="K39" s="6"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="25">
+        <v>6</v>
+      </c>
+      <c r="B40" s="25">
+        <v>-4</v>
+      </c>
+      <c r="C40" s="26">
+        <v>0.62834761511346404</v>
+      </c>
+      <c r="D40" s="26">
+        <v>-0.17513012297194699</v>
+      </c>
+      <c r="E40" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="F40" s="27">
+        <v>11.4</v>
+      </c>
+      <c r="G40" s="27">
+        <v>0.8</v>
+      </c>
+      <c r="H40" s="28">
+        <v>21.777814593210017</v>
+      </c>
+      <c r="I40" s="27">
+        <v>5.9059120058962735</v>
+      </c>
+      <c r="J40" s="27">
+        <v>0.20371168525297639</v>
+      </c>
+      <c r="K40" s="6"/>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="25">
+        <v>6</v>
+      </c>
+      <c r="B41" s="25">
+        <v>-3</v>
+      </c>
+      <c r="C41" s="26">
+        <v>0.63460357429190295</v>
+      </c>
+      <c r="D41" s="26">
+        <v>-0.13070952199493599</v>
+      </c>
+      <c r="E41" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="F41" s="27">
+        <v>15.6</v>
+      </c>
+      <c r="G41" s="27">
+        <v>0.9</v>
+      </c>
+      <c r="H41" s="28">
+        <v>16.093782476693981</v>
+      </c>
+      <c r="I41" s="27">
+        <v>5.9390743342853556</v>
+      </c>
+      <c r="J41" s="27">
+        <v>0.1689173052188766</v>
+      </c>
+      <c r="K41" s="6"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="25">
+        <v>6</v>
+      </c>
+      <c r="B42" s="25">
+        <v>-2</v>
+      </c>
+      <c r="C42" s="26">
+        <v>0.64085749675345105</v>
+      </c>
+      <c r="D42" s="26">
+        <v>-8.5210304391374406E-2</v>
+      </c>
+      <c r="E42" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="F42" s="27">
+        <v>10.1</v>
+      </c>
+      <c r="G42" s="27">
+        <v>1.8</v>
+      </c>
+      <c r="H42" s="28">
+        <v>10.38924677558575</v>
+      </c>
+      <c r="I42" s="27">
+        <v>3.8395481323492611</v>
+      </c>
+      <c r="J42" s="27">
+        <v>0.32811789707507311</v>
+      </c>
+      <c r="K42" s="6"/>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="25">
+        <v>6</v>
+      </c>
+      <c r="B43" s="25">
+        <v>-1</v>
+      </c>
+      <c r="C43" s="26">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="D43" s="26">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="E43" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="F43" s="27">
+        <v>16.3</v>
+      </c>
+      <c r="G43" s="27">
+        <v>3</v>
+      </c>
+      <c r="H43" s="28">
+        <v>5.1929912334318695</v>
+      </c>
+      <c r="I43" s="27">
+        <v>3.4484981329156996</v>
+      </c>
+      <c r="J43" s="27">
+        <v>0.30395129120532471</v>
+      </c>
+      <c r="K43" s="6"/>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="25">
+        <v>6</v>
+      </c>
+      <c r="B44" s="25">
+        <v>0</v>
+      </c>
+      <c r="C44" s="26">
+        <v>0.65283842913362999</v>
+      </c>
+      <c r="D44" s="26">
+        <v>0</v>
+      </c>
+      <c r="E44" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="F44" s="27">
+        <v>60.2</v>
+      </c>
+      <c r="G44" s="27">
+        <v>4.7</v>
+      </c>
+      <c r="H44" s="28">
+        <v>1.3890179343268723</v>
+      </c>
+      <c r="I44" s="27">
+        <v>3.4275166288899381</v>
+      </c>
+      <c r="J44" s="27">
+        <v>0.13128411974197432</v>
+      </c>
+      <c r="K44" s="6"/>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="25">
+        <v>6</v>
+      </c>
+      <c r="B45" s="25">
+        <v>1</v>
+      </c>
+      <c r="C45" s="26">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="D45" s="26">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="E45" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="F45" s="27">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="G45" s="27">
+        <v>1.5</v>
+      </c>
+      <c r="H45" s="28">
+        <v>5.2169980743670274</v>
+      </c>
+      <c r="I45" s="27">
+        <v>3.8668098854550017</v>
+      </c>
+      <c r="J45" s="27">
+        <v>0.13964073013032346</v>
+      </c>
+      <c r="K45" s="6"/>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="25">
+        <v>6</v>
+      </c>
+      <c r="B46" s="25">
+        <v>2</v>
+      </c>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="F46" s="27">
+        <v>0</v>
+      </c>
+      <c r="G46" s="27">
+        <v>0.6</v>
+      </c>
+      <c r="H46" s="28">
+        <v>10.208</v>
+      </c>
+      <c r="I46" s="27">
+        <v>0</v>
+      </c>
+      <c r="J46" s="27">
+        <v>0.9276269427443542</v>
+      </c>
+      <c r="K46" s="6"/>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="25">
+        <v>6</v>
+      </c>
+      <c r="B47" s="25">
+        <v>3</v>
+      </c>
+      <c r="C47" s="26">
+        <v>0.67209598713936702</v>
+      </c>
+      <c r="D47" s="26">
+        <v>0.1275357632013</v>
+      </c>
+      <c r="E47" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="F47" s="27">
+        <v>5.9</v>
+      </c>
+      <c r="G47" s="27">
+        <v>0.3</v>
+      </c>
+      <c r="H47" s="28">
+        <v>14.656602048893092</v>
+      </c>
+      <c r="I47" s="27">
+        <v>3.4855398485408062</v>
+      </c>
+      <c r="J47" s="27">
+        <v>8.7516712742102279E-2</v>
+      </c>
+      <c r="K47" s="6"/>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="25">
+        <v>6</v>
+      </c>
+      <c r="B48" s="25">
+        <v>4</v>
+      </c>
+      <c r="C48" s="26">
+        <v>0.67937736380160296</v>
+      </c>
+      <c r="D48" s="26">
+        <v>0.16984324749660701</v>
+      </c>
+      <c r="E48" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="F48" s="27">
+        <v>4.2</v>
+      </c>
+      <c r="G48" s="27">
+        <v>0.3</v>
+      </c>
+      <c r="H48" s="28">
+        <v>19.309446536195495</v>
+      </c>
+      <c r="I48" s="27">
+        <v>3.3754910156229725</v>
+      </c>
+      <c r="J48" s="27">
+        <v>0.11847412800346424</v>
+      </c>
+      <c r="K48" s="6"/>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="25">
+        <v>7</v>
+      </c>
+      <c r="B49" s="25">
+        <v>-4</v>
+      </c>
+      <c r="C49" s="26">
+        <v>0.73700234565099998</v>
+      </c>
+      <c r="D49" s="26">
+        <v>-0.17407277833337401</v>
+      </c>
+      <c r="E49" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="F49" s="27">
+        <v>40</v>
+      </c>
+      <c r="G49" s="27">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H49" s="28">
+        <v>17.681984796601601</v>
+      </c>
+      <c r="I49" s="27">
+        <v>9.9683413281095259</v>
+      </c>
+      <c r="J49" s="27">
+        <v>0.13613511189581756</v>
+      </c>
+      <c r="K49" s="6"/>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="25">
+        <v>7</v>
+      </c>
+      <c r="B50" s="25">
+        <v>-3</v>
+      </c>
+      <c r="C50" s="26">
+        <v>0.743220481007552</v>
+      </c>
+      <c r="D50" s="26">
+        <v>-0.129651613786888</v>
+      </c>
+      <c r="E50" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="F50" s="27">
+        <v>36</v>
+      </c>
+      <c r="G50" s="27">
+        <v>1.8</v>
+      </c>
+      <c r="H50" s="28">
+        <v>13.059582090921722</v>
+      </c>
+      <c r="I50" s="27">
+        <v>8.1272438116403585</v>
+      </c>
+      <c r="J50" s="27">
+        <v>0.20070290844249999</v>
+      </c>
+      <c r="K50" s="6"/>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="25">
+        <v>7</v>
+      </c>
+      <c r="B51" s="25">
+        <v>-2</v>
+      </c>
+      <c r="C51" s="26">
+        <v>0.74943629215009</v>
+      </c>
+      <c r="D51" s="26">
+        <v>-8.5210304391374406E-2</v>
+      </c>
+      <c r="E51" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="F51" s="27">
+        <v>15</v>
+      </c>
+      <c r="G51" s="27">
+        <v>7.3</v>
+      </c>
+      <c r="H51" s="28">
+        <v>8.5118981461603962</v>
+      </c>
+      <c r="I51" s="27">
+        <v>4.2353200763011589</v>
+      </c>
+      <c r="J51" s="27">
+        <v>0.92876084300060557</v>
+      </c>
+      <c r="K51" s="6"/>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="25">
+        <v>7</v>
+      </c>
+      <c r="B52" s="25">
+        <v>-1</v>
+      </c>
+      <c r="C52" s="26">
+        <v>0.75513206308273295</v>
+      </c>
+      <c r="D52" s="26">
+        <v>-4.1814290342365001E-2</v>
+      </c>
+      <c r="E52" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="F52" s="27">
+        <v>22</v>
+      </c>
+      <c r="G52" s="27">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H52" s="28">
+        <v>4.1454419833182463</v>
+      </c>
+      <c r="I52" s="27">
+        <v>3.5795147752127021</v>
+      </c>
+      <c r="J52" s="27">
+        <v>0.18246066349073845</v>
+      </c>
+      <c r="K52" s="6"/>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="25">
+        <v>7</v>
+      </c>
+      <c r="B53" s="25">
+        <v>0</v>
+      </c>
+      <c r="C53" s="26">
+        <v>0.76030831903585805</v>
+      </c>
+      <c r="D53" s="26">
+        <v>0</v>
+      </c>
+      <c r="E53" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="F53" s="27">
+        <v>36</v>
+      </c>
+      <c r="G53" s="27">
+        <v>1.8</v>
+      </c>
+      <c r="H53" s="28">
+        <v>1.5692638163794796</v>
+      </c>
+      <c r="I53" s="27">
+        <v>2.8172580542433181</v>
+      </c>
+      <c r="J53" s="27">
+        <v>6.9572403440123776E-2</v>
+      </c>
+      <c r="K53" s="6"/>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="25">
+        <v>8</v>
+      </c>
+      <c r="B54" s="25">
+        <v>0</v>
+      </c>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="27">
+        <v>0</v>
+      </c>
+      <c r="G54" s="27">
+        <v>3</v>
+      </c>
+      <c r="H54" s="28">
+        <v>1.7734080000000001</v>
+      </c>
+      <c r="I54" s="27">
+        <v>0</v>
+      </c>
+      <c r="J54" s="27">
+        <v>0.86455446342818365</v>
+      </c>
+      <c r="K54" s="6"/>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="25">
+        <v>9</v>
+      </c>
+      <c r="B55" s="25">
+        <v>-5</v>
+      </c>
+      <c r="C55" s="26">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="D55" s="26">
+        <v>-0.215</v>
+      </c>
+      <c r="E55" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="F55" s="27">
+        <v>16</v>
+      </c>
+      <c r="G55" s="27">
+        <v>3</v>
+      </c>
+      <c r="H55" s="28">
+        <v>16.548823633110437</v>
+      </c>
+      <c r="I55" s="27">
+        <v>6.0991730181380701</v>
+      </c>
+      <c r="J55" s="27">
+        <v>0.54724668817038435</v>
+      </c>
+      <c r="K55" s="6"/>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="25">
+        <v>9</v>
+      </c>
+      <c r="B56" s="25">
+        <v>-4</v>
+      </c>
+      <c r="C56" s="26">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="D56" s="26">
+        <v>-0.17299999999999999</v>
+      </c>
+      <c r="E56" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="F56" s="27">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="G56" s="27">
+        <v>3</v>
+      </c>
+      <c r="H56" s="28">
+        <v>13.232544096572273</v>
+      </c>
+      <c r="I56" s="27">
+        <v>5.6052169358775865</v>
+      </c>
+      <c r="J56" s="27">
+        <v>0.47719194282833022</v>
+      </c>
+      <c r="K56" s="6"/>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="25">
+        <v>9</v>
+      </c>
+      <c r="B57" s="25">
+        <v>-3</v>
+      </c>
+      <c r="C57" s="26"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="F57" s="27">
+        <v>0</v>
+      </c>
+      <c r="G57" s="27">
+        <v>8</v>
+      </c>
+      <c r="H57" s="28">
+        <v>9.7902000000000005</v>
+      </c>
+      <c r="I57" s="27">
+        <v>0</v>
+      </c>
+      <c r="J57" s="27">
+        <v>3.317173396577485</v>
+      </c>
+      <c r="K57" s="6"/>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="25">
+        <v>9</v>
+      </c>
+      <c r="B58" s="25">
+        <v>-2</v>
+      </c>
+      <c r="C58" s="26">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="D58" s="26">
+        <v>-8.5999999999999993E-2</v>
+      </c>
+      <c r="E58" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="F58" s="27">
+        <v>10</v>
+      </c>
+      <c r="G58" s="27">
+        <v>2.9</v>
+      </c>
+      <c r="H58" s="28">
+        <v>6.4965660578278728</v>
+      </c>
+      <c r="I58" s="27">
+        <v>3.0211294029395446</v>
+      </c>
+      <c r="J58" s="27">
+        <v>0.41021399307965062</v>
+      </c>
+      <c r="K58" s="6"/>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="25">
+        <v>9</v>
+      </c>
+      <c r="B59" s="25">
+        <v>-1</v>
+      </c>
+      <c r="C59" s="26"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="F59" s="27">
+        <v>0</v>
+      </c>
+      <c r="G59" s="27">
+        <v>6</v>
+      </c>
+      <c r="H59" s="28">
+        <v>3.2634000000000003</v>
+      </c>
+      <c r="I59" s="27">
+        <v>0</v>
+      </c>
+      <c r="J59" s="27">
+        <v>1.6585866982887425</v>
+      </c>
+      <c r="K59" s="6"/>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="25">
+        <v>9</v>
+      </c>
+      <c r="B60" s="25">
+        <v>0</v>
+      </c>
+      <c r="C60" s="26">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="D60" s="26">
+        <v>0</v>
+      </c>
+      <c r="E60" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="F60" s="29">
+        <v>17</v>
+      </c>
+      <c r="G60" s="29">
+        <v>10</v>
+      </c>
+      <c r="H60" s="28">
+        <v>2.0004705882352938</v>
+      </c>
+      <c r="I60" s="27">
+        <v>2.1858378616109753</v>
+      </c>
+      <c r="J60" s="27">
+        <v>0.56886884046442454</v>
+      </c>
+      <c r="K60" s="6"/>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="J61" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:V61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y8" sqref="Y8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.5703125" customWidth="1"/>
+    <col min="18" max="18" width="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0.11069326989478628</v>
+      </c>
+      <c r="D2" s="3">
+        <v>726</v>
+      </c>
+      <c r="E2" s="2">
+        <v>63</v>
+      </c>
+      <c r="F2" s="2">
+        <f>D2/7.118</f>
+        <v>101.99494239955042</v>
+      </c>
+      <c r="G2" s="2">
+        <f>E2/7.118</f>
+        <v>8.8508007867378478</v>
+      </c>
+      <c r="H2" s="7">
+        <v>1.9607843137254901</v>
+      </c>
+      <c r="I2" s="7">
+        <v>2.6315789473684212</v>
+      </c>
+      <c r="J2" s="7">
+        <v>14.164138147579219</v>
+      </c>
+      <c r="K2" s="8">
+        <f>F2*$H2*$I2*$J2</f>
+        <v>7454.4399097090691</v>
+      </c>
+      <c r="L2" s="8">
+        <f>G2*$H2*$I2*$J2</f>
+        <v>646.87288472682008</v>
+      </c>
+      <c r="M2" s="6">
+        <f>L2/K2</f>
+        <v>8.6776859504132234E-2</v>
+      </c>
+      <c r="N2" s="2">
+        <f>SQRT(K2)</f>
+        <v>86.339098383693283</v>
+      </c>
+      <c r="P2" s="19">
+        <f>H2*I2*J2</f>
+        <v>73.086368150563572</v>
+      </c>
+      <c r="R2" s="3">
+        <v>1</v>
+      </c>
+      <c r="S2" s="3">
+        <v>-1</v>
+      </c>
+      <c r="T2" s="7">
+        <v>1.9607843137254901</v>
+      </c>
+      <c r="U2" s="7">
+        <v>2.6315789473684212</v>
+      </c>
+      <c r="V2" s="7">
+        <v>14.164138147579219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.109</v>
+      </c>
+      <c r="D3" s="3">
+        <v>180818</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1759</v>
+      </c>
+      <c r="F3" s="2">
+        <f>D3/7.118</f>
+        <v>25402.922169148635</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" ref="G3:G60" si="0">E3/7.118</f>
+        <v>247.11997752177578</v>
+      </c>
+      <c r="H3" s="7">
+        <v>1.4084507042253522</v>
+      </c>
+      <c r="I3" s="7">
+        <v>2.5641025641025639</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0.109</v>
+      </c>
+      <c r="K3" s="8">
+        <f t="shared" ref="K3:K60" si="1">F3*$H3*$I3*$J3</f>
+        <v>9999.7057292784448</v>
+      </c>
+      <c r="L3" s="8">
+        <f t="shared" ref="L3:L60" si="2">G3*$H3*$I3*$J3</f>
+        <v>97.277275369713109</v>
+      </c>
+      <c r="M3" s="6">
+        <f>L3/K3</f>
+        <v>9.7280138039354501E-3</v>
+      </c>
+      <c r="N3" s="2">
+        <f t="shared" ref="N3:N60" si="3">SQRT(K3)</f>
+        <v>99.998528635567652</v>
+      </c>
+      <c r="P3" s="19">
+        <f t="shared" ref="P3:P60" si="4">H3*I3*J3</f>
+        <v>0.39364391477067534</v>
+      </c>
+      <c r="R3" s="3">
+        <v>1</v>
+      </c>
+      <c r="S3" s="3">
+        <v>0</v>
+      </c>
+      <c r="T3" s="7">
+        <v>1.4084507042253522</v>
+      </c>
+      <c r="U3" s="7">
+        <v>2.5641025641025639</v>
+      </c>
+      <c r="V3" s="7">
+        <v>0.109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.12184005909387931</v>
+      </c>
+      <c r="D4" s="3">
+        <v>228</v>
+      </c>
+      <c r="E4" s="2">
+        <v>28</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" ref="F4:F60" si="5">D4/7.118</f>
+        <v>32.031469513908398</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="0"/>
+        <v>3.9336892385501545</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1.7857142857142856</v>
+      </c>
+      <c r="I4" s="7">
+        <v>2.5641025641025639</v>
+      </c>
+      <c r="J4" s="7">
+        <v>12.673176237307722</v>
+      </c>
+      <c r="K4" s="8">
+        <f t="shared" si="1"/>
+        <v>1858.7017320957443</v>
+      </c>
+      <c r="L4" s="8">
+        <f t="shared" si="2"/>
+        <v>228.26161622228443</v>
+      </c>
+      <c r="M4" s="6">
+        <f t="shared" ref="M4:M60" si="6">L4/K4</f>
+        <v>0.12280701754385967</v>
+      </c>
+      <c r="N4" s="2">
+        <f t="shared" si="3"/>
+        <v>43.112663245220013</v>
+      </c>
+      <c r="P4" s="19">
+        <f t="shared" si="4"/>
+        <v>58.027363723936439</v>
+      </c>
+      <c r="R4" s="3">
+        <v>1</v>
+      </c>
+      <c r="S4" s="3">
+        <v>1</v>
+      </c>
+      <c r="T4" s="7">
+        <v>1.7857142857142856</v>
+      </c>
+      <c r="U4" s="7">
+        <v>2.5641025641025639</v>
+      </c>
+      <c r="V4" s="7">
+        <v>12.673176237307722</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.14048890137679124</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1.74</v>
+      </c>
+      <c r="I5" s="7">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="J5" s="7">
+        <v>25</v>
+      </c>
+      <c r="K5" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="8">
+        <f t="shared" si="2"/>
+        <v>15.46150604102276</v>
+      </c>
+      <c r="M5" s="6"/>
+      <c r="N5" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P5" s="19">
+        <f t="shared" si="4"/>
+        <v>110.05499999999999</v>
+      </c>
+      <c r="R5" s="3">
+        <v>1</v>
+      </c>
+      <c r="S5" s="3">
+        <v>2</v>
+      </c>
+      <c r="T5" s="7">
+        <v>1.74</v>
+      </c>
+      <c r="U5" s="7">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="V5" s="7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3">
+        <v>3</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.18243903091169938</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="5"/>
+        <v>0.53385782523180669</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="0"/>
+        <v>2.8097780275358246E-2</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1.6949152542372883</v>
+      </c>
+      <c r="I6" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="J6" s="7">
+        <v>34.123632237808948</v>
+      </c>
+      <c r="K6" s="8">
+        <f t="shared" si="1"/>
+        <v>77.191390235112962</v>
+      </c>
+      <c r="L6" s="8">
+        <f t="shared" si="2"/>
+        <v>4.0627047492164712</v>
+      </c>
+      <c r="M6" s="6">
+        <f t="shared" si="6"/>
+        <v>5.2631578947368411E-2</v>
+      </c>
+      <c r="N6" s="2">
+        <f t="shared" si="3"/>
+        <v>8.7858630899367522</v>
+      </c>
+      <c r="P6" s="19">
+        <f t="shared" si="4"/>
+        <v>144.59166202461421</v>
+      </c>
+      <c r="R6" s="3">
+        <v>1</v>
+      </c>
+      <c r="S6" s="3">
+        <v>3</v>
+      </c>
+      <c r="T6" s="7">
+        <v>1.6949152542372883</v>
+      </c>
+      <c r="U6" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="V6" s="7">
+        <v>34.123632237808948</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3">
+        <v>-2</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.22361797781037193</v>
+      </c>
+      <c r="D7" s="3">
+        <v>49.2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="5"/>
+        <v>6.9120539477381291</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.49171115481876931</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1.4492753623188408</v>
+      </c>
+      <c r="I7" s="7">
+        <v>2.2727272727272729</v>
+      </c>
+      <c r="J7" s="7">
+        <v>14.189722501876043</v>
+      </c>
+      <c r="K7" s="8">
+        <f t="shared" si="1"/>
+        <v>323.05707324242718</v>
+      </c>
+      <c r="L7" s="8">
+        <f t="shared" si="2"/>
+        <v>22.981702364806807</v>
+      </c>
+      <c r="M7" s="6">
+        <f t="shared" si="6"/>
+        <v>7.1138211382113806E-2</v>
+      </c>
+      <c r="N7" s="2">
+        <f t="shared" si="3"/>
+        <v>17.97378850555517</v>
+      </c>
+      <c r="P7" s="19">
+        <f t="shared" si="4"/>
+        <v>46.738216409341391</v>
+      </c>
+      <c r="R7" s="3">
+        <v>2</v>
+      </c>
+      <c r="S7" s="3">
+        <v>-2</v>
+      </c>
+      <c r="T7" s="7">
+        <v>1.4492753623188408</v>
+      </c>
+      <c r="U7" s="7">
+        <v>2.2727272727272729</v>
+      </c>
+      <c r="V7" s="7">
+        <v>14.189722501876043</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" s="3">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.21651789764358972</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1818</v>
+      </c>
+      <c r="E8" s="2">
+        <v>20</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="5"/>
+        <v>255.40882270300645</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="0"/>
+        <v>2.8097780275358244</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="I8" s="7">
+        <v>2.2727272727272729</v>
+      </c>
+      <c r="J8" s="7">
+        <v>6.9733053977989838</v>
+      </c>
+      <c r="K8" s="8">
+        <f t="shared" si="1"/>
+        <v>5782.6094870141515</v>
+      </c>
+      <c r="L8" s="8">
+        <f t="shared" si="2"/>
+        <v>63.615065863742039</v>
+      </c>
+      <c r="M8" s="6">
+        <f t="shared" si="6"/>
+        <v>1.1001100110011E-2</v>
+      </c>
+      <c r="N8" s="2">
+        <f t="shared" si="3"/>
+        <v>76.043471034758483</v>
+      </c>
+      <c r="P8" s="19">
+        <f t="shared" si="4"/>
+        <v>22.640601940905796</v>
+      </c>
+      <c r="R8" s="3">
+        <v>2</v>
+      </c>
+      <c r="S8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="T8" s="7">
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="U8" s="7">
+        <v>2.2727272727272729</v>
+      </c>
+      <c r="V8" s="7">
+        <v>6.9733053977989838</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" s="3">
+        <v>2</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.218</v>
+      </c>
+      <c r="D9" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E9" s="2">
+        <v>174</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="5"/>
+        <v>1432.9867940432705</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="0"/>
+        <v>24.445068839561674</v>
+      </c>
+      <c r="H9" s="7">
+        <v>1.1904761904761905</v>
+      </c>
+      <c r="I9" s="7">
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0.218</v>
+      </c>
+      <c r="K9" s="8">
+        <f t="shared" si="1"/>
+        <v>826.43153730537824</v>
+      </c>
+      <c r="L9" s="8">
+        <f t="shared" si="2"/>
+        <v>14.097949754032925</v>
+      </c>
+      <c r="M9" s="6">
+        <f t="shared" si="6"/>
+        <v>1.7058823529411769E-2</v>
+      </c>
+      <c r="N9" s="2">
+        <f t="shared" si="3"/>
+        <v>28.747722297694789</v>
+      </c>
+      <c r="P9" s="19">
+        <f t="shared" si="4"/>
+        <v>0.57671957671957674</v>
+      </c>
+      <c r="R9" s="3">
+        <v>2</v>
+      </c>
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+      <c r="T9" s="7">
+        <v>1.1904761904761905</v>
+      </c>
+      <c r="U9" s="7">
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="V9" s="7">
+        <v>0.218</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" s="3">
+        <v>2</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.22808989455914089</v>
+      </c>
+      <c r="D10" s="3">
+        <v>550</v>
+      </c>
+      <c r="E10" s="2">
+        <v>10</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="5"/>
+        <v>77.268895757235171</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="0"/>
+        <v>1.4048890137679122</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1.4084507042253522</v>
+      </c>
+      <c r="I10" s="7">
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="J10" s="7">
+        <v>6.4497414779155369</v>
+      </c>
+      <c r="K10" s="8">
+        <f t="shared" si="1"/>
+        <v>1559.8259840944338</v>
+      </c>
+      <c r="L10" s="8">
+        <f t="shared" si="2"/>
+        <v>28.360472438080613</v>
+      </c>
+      <c r="M10" s="6">
+        <f t="shared" si="6"/>
+        <v>1.8181818181818181E-2</v>
+      </c>
+      <c r="N10" s="2">
+        <f t="shared" si="3"/>
+        <v>39.494632345350851</v>
+      </c>
+      <c r="P10" s="19">
+        <f t="shared" si="4"/>
+        <v>20.186984281425783</v>
+      </c>
+      <c r="R10" s="3">
+        <v>2</v>
+      </c>
+      <c r="S10" s="3">
+        <v>1</v>
+      </c>
+      <c r="T10" s="7">
+        <v>1.4084507042253522</v>
+      </c>
+      <c r="U10" s="7">
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="V10" s="7">
+        <v>6.4497414779155369</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3">
+        <v>2</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.2464893506827425</v>
+      </c>
+      <c r="D11" s="3">
+        <v>112</v>
+      </c>
+      <c r="E11" s="2">
+        <v>3</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="5"/>
+        <v>15.734756954200618</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.42146670413037368</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1.3888888888888888</v>
+      </c>
+      <c r="I11" s="7">
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="J11" s="7">
+        <v>12.508589532927102</v>
+      </c>
+      <c r="K11" s="8">
+        <f t="shared" si="1"/>
+        <v>607.46795105082026</v>
+      </c>
+      <c r="L11" s="8">
+        <f t="shared" si="2"/>
+        <v>16.271462974575545</v>
+      </c>
+      <c r="M11" s="6">
+        <f t="shared" si="6"/>
+        <v>2.6785714285714291E-2</v>
+      </c>
+      <c r="N11" s="2">
+        <f t="shared" si="3"/>
+        <v>24.646864933512745</v>
+      </c>
+      <c r="P11" s="19">
+        <f t="shared" si="4"/>
+        <v>38.60675781767624</v>
+      </c>
+      <c r="R11" s="3">
+        <v>2</v>
+      </c>
+      <c r="S11" s="3">
+        <v>2</v>
+      </c>
+      <c r="T11" s="7">
+        <v>1.3888888888888888</v>
+      </c>
+      <c r="U11" s="7">
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="V11" s="7">
+        <v>12.508589532927102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" s="3">
+        <v>2</v>
+      </c>
+      <c r="B12" s="3">
+        <v>3</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0.26983328186122629</v>
+      </c>
+      <c r="D12" s="3">
+        <v>27</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="5"/>
+        <v>3.7932003371733631</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="0"/>
+        <v>2.8097780275358246E-2</v>
+      </c>
+      <c r="H12" s="7">
+        <v>1.3888888888888888</v>
+      </c>
+      <c r="I12" s="7">
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="J12" s="7">
+        <v>18.287874570292161</v>
+      </c>
+      <c r="K12" s="8">
+        <f t="shared" si="1"/>
+        <v>214.10361724140867</v>
+      </c>
+      <c r="L12" s="8">
+        <f t="shared" si="2"/>
+        <v>1.5859527203067307</v>
+      </c>
+      <c r="M12" s="6">
+        <f t="shared" si="6"/>
+        <v>7.4074074074074068E-3</v>
+      </c>
+      <c r="N12" s="2">
+        <f t="shared" si="3"/>
+        <v>14.63227997413283</v>
+      </c>
+      <c r="P12" s="19">
+        <f t="shared" si="4"/>
+        <v>56.444057315716542</v>
+      </c>
+      <c r="R12" s="3">
+        <v>2</v>
+      </c>
+      <c r="S12" s="3">
+        <v>3</v>
+      </c>
+      <c r="T12" s="7">
+        <v>1.3888888888888888</v>
+      </c>
+      <c r="U12" s="7">
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="V12" s="7">
+        <v>18.287874570292161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13" s="3">
+        <v>2</v>
+      </c>
+      <c r="B13" s="3">
+        <v>4</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0.29829180344085893</v>
+      </c>
+      <c r="D13" s="3">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="5"/>
+        <v>1.152008991289688</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="0"/>
+        <v>5.6195560550716492E-2</v>
+      </c>
+      <c r="H13" s="7">
+        <v>1.3888888888888888</v>
+      </c>
+      <c r="I13" s="7">
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="J13" s="7">
+        <v>23.920028878570477</v>
+      </c>
+      <c r="K13" s="8">
+        <f t="shared" si="1"/>
+        <v>85.049655370438842</v>
+      </c>
+      <c r="L13" s="8">
+        <f t="shared" si="2"/>
+        <v>4.148763676606773</v>
+      </c>
+      <c r="M13" s="6">
+        <f t="shared" si="6"/>
+        <v>4.878048780487805E-2</v>
+      </c>
+      <c r="N13" s="2">
+        <f t="shared" si="3"/>
+        <v>9.2222370046772735</v>
+      </c>
+      <c r="P13" s="19">
+        <f t="shared" si="4"/>
+        <v>73.827249625217519</v>
+      </c>
+      <c r="R13" s="3">
+        <v>2</v>
+      </c>
+      <c r="S13" s="3">
+        <v>4</v>
+      </c>
+      <c r="T13" s="7">
+        <v>1.3888888888888888</v>
+      </c>
+      <c r="U13" s="7">
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="V13" s="7">
+        <v>23.920028878570477</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14" s="3">
+        <v>2</v>
+      </c>
+      <c r="B14" s="3">
+        <v>5</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0.32908357601071497</v>
+      </c>
+      <c r="D14" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="5"/>
+        <v>0.36527114357965718</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="0"/>
+        <v>9.8342230963753857E-2</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1.3888888888888888</v>
+      </c>
+      <c r="I14" s="7">
+        <v>2.1739130434782608</v>
+      </c>
+      <c r="J14" s="7">
+        <v>28.760447207940395</v>
+      </c>
+      <c r="K14" s="8">
+        <f t="shared" si="1"/>
+        <v>31.719086477979307</v>
+      </c>
+      <c r="L14" s="8">
+        <f t="shared" si="2"/>
+        <v>8.5397540517636603</v>
+      </c>
+      <c r="M14" s="6">
+        <f t="shared" si="6"/>
+        <v>0.26923076923076927</v>
+      </c>
+      <c r="N14" s="2">
+        <f t="shared" si="3"/>
+        <v>5.631970035252257</v>
+      </c>
+      <c r="P14" s="19">
+        <f t="shared" si="4"/>
+        <v>86.837099057791036</v>
+      </c>
+      <c r="R14" s="3">
+        <v>2</v>
+      </c>
+      <c r="S14" s="3">
+        <v>5</v>
+      </c>
+      <c r="T14" s="7">
+        <v>1.3888888888888888</v>
+      </c>
+      <c r="U14" s="7">
+        <v>2.1739130434782608</v>
+      </c>
+      <c r="V14" s="7">
+        <v>28.760447207940395</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15" s="3">
+        <v>2</v>
+      </c>
+      <c r="B15" s="3">
+        <v>6</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0.36274646793594006</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="5"/>
+        <v>0.16858668165214946</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="0"/>
+        <v>2.8097780275358246E-2</v>
+      </c>
+      <c r="H15" s="7">
+        <v>1.3698630136986301</v>
+      </c>
+      <c r="I15" s="7">
+        <v>2.1739130434782608</v>
+      </c>
+      <c r="J15" s="7">
+        <v>33.729898019680384</v>
+      </c>
+      <c r="K15" s="8">
+        <f t="shared" si="1"/>
+        <v>16.933923703404773</v>
+      </c>
+      <c r="L15" s="8">
+        <f t="shared" si="2"/>
+        <v>2.8223206172341286</v>
+      </c>
+      <c r="M15" s="6">
+        <f t="shared" si="6"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="N15" s="2">
+        <f t="shared" si="3"/>
+        <v>4.1150848962572777</v>
+      </c>
+      <c r="P15" s="19">
+        <f t="shared" si="4"/>
+        <v>100.44639076736266</v>
+      </c>
+      <c r="R15" s="3">
+        <v>2</v>
+      </c>
+      <c r="S15" s="3">
+        <v>6</v>
+      </c>
+      <c r="T15" s="7">
+        <v>1.3698630136986301</v>
+      </c>
+      <c r="U15" s="7">
+        <v>2.1739130434782608</v>
+      </c>
+      <c r="V15" s="7">
+        <v>33.729898019680384</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16" s="3">
+        <v>3</v>
+      </c>
+      <c r="B16" s="3">
+        <v>-2</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0.32582971012478285</v>
+      </c>
+      <c r="D16" s="3">
+        <v>305</v>
+      </c>
+      <c r="E16" s="2">
+        <v>15</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="5"/>
+        <v>42.849114919921327</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="0"/>
+        <v>2.1073335206518684</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1.2987012987012987</v>
+      </c>
+      <c r="I16" s="7">
+        <v>2.1276595744680851</v>
+      </c>
+      <c r="J16" s="7">
+        <v>9.3091810044154926</v>
+      </c>
+      <c r="K16" s="8">
+        <f t="shared" si="1"/>
+        <v>1102.2110159396188</v>
+      </c>
+      <c r="L16" s="8">
+        <f t="shared" si="2"/>
+        <v>54.207099144571416</v>
+      </c>
+      <c r="M16" s="6">
+        <f t="shared" si="6"/>
+        <v>4.9180327868852458E-2</v>
+      </c>
+      <c r="N16" s="2">
+        <f t="shared" si="3"/>
+        <v>33.199563490196958</v>
+      </c>
+      <c r="P16" s="19">
+        <f t="shared" si="4"/>
+        <v>25.723075447403961</v>
+      </c>
+      <c r="R16" s="3">
+        <v>3</v>
+      </c>
+      <c r="S16" s="3">
+        <v>-2</v>
+      </c>
+      <c r="T16" s="7">
+        <v>1.2987012987012987</v>
+      </c>
+      <c r="U16" s="7">
+        <v>2.1276595744680851</v>
+      </c>
+      <c r="V16" s="7">
+        <v>9.3091810044154926</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
+      <c r="A17" s="3">
+        <v>3</v>
+      </c>
+      <c r="B17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0.32386725675807365</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1205</v>
+      </c>
+      <c r="E17" s="2">
+        <v>22</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="5"/>
+        <v>169.28912615903343</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="0"/>
+        <v>3.0907558302894071</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1.2987012987012987</v>
+      </c>
+      <c r="I17" s="7">
+        <v>2.1276595744680851</v>
+      </c>
+      <c r="J17" s="7">
+        <v>4.5007541777354527</v>
+      </c>
+      <c r="K17" s="8">
+        <f t="shared" si="1"/>
+        <v>2105.3571202140197</v>
+      </c>
+      <c r="L17" s="8">
+        <f t="shared" si="2"/>
+        <v>38.438055306811989</v>
+      </c>
+      <c r="M17" s="6">
+        <f t="shared" si="6"/>
+        <v>1.8257261410788386E-2</v>
+      </c>
+      <c r="N17" s="2">
+        <f t="shared" si="3"/>
+        <v>45.884170693323199</v>
+      </c>
+      <c r="P17" s="19">
+        <f t="shared" si="4"/>
+        <v>12.436458076085804</v>
+      </c>
+      <c r="R17" s="3">
+        <v>3</v>
+      </c>
+      <c r="S17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="T17" s="7">
+        <v>1.2987012987012987</v>
+      </c>
+      <c r="U17" s="7">
+        <v>2.1276595744680851</v>
+      </c>
+      <c r="V17" s="7">
+        <v>4.5007541777354527</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18" s="3">
+        <v>3</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1566</v>
+      </c>
+      <c r="E18" s="2">
+        <v>110</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="5"/>
+        <v>220.00561955605505</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="0"/>
+        <v>15.453779151447035</v>
+      </c>
+      <c r="H18" s="7">
+        <v>1.1363636363636365</v>
+      </c>
+      <c r="I18" s="7">
+        <v>2.1276595744680851</v>
+      </c>
+      <c r="J18" s="7">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="K18" s="8">
+        <f t="shared" si="1"/>
+        <v>173.40868465975328</v>
+      </c>
+      <c r="L18" s="8">
+        <f t="shared" si="2"/>
+        <v>12.18068666192392</v>
+      </c>
+      <c r="M18" s="6">
+        <f t="shared" si="6"/>
+        <v>7.0242656449552993E-2</v>
+      </c>
+      <c r="N18" s="2">
+        <f t="shared" si="3"/>
+        <v>13.168473133197837</v>
+      </c>
+      <c r="P18" s="19">
+        <f t="shared" si="4"/>
+        <v>0.78820116054158607</v>
+      </c>
+      <c r="R18" s="3">
+        <v>3</v>
+      </c>
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="7">
+        <v>1.1363636363636365</v>
+      </c>
+      <c r="U18" s="7">
+        <v>2.1276595744680851</v>
+      </c>
+      <c r="V18" s="7">
+        <v>0.32600000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="A19" s="3">
+        <v>3</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>31</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="0"/>
+        <v>4.3551559426805282</v>
+      </c>
+      <c r="H19" s="7">
+        <v>1.28</v>
+      </c>
+      <c r="I19" s="7">
+        <v>2.08</v>
+      </c>
+      <c r="J19" s="7">
+        <v>4.3516328043767478</v>
+      </c>
+      <c r="K19" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="8">
+        <f t="shared" si="2"/>
+        <v>50.457909880521534</v>
+      </c>
+      <c r="M19" s="6"/>
+      <c r="N19" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="19">
+        <f t="shared" si="4"/>
+        <v>11.585787178372655</v>
+      </c>
+      <c r="R19" s="3">
+        <v>3</v>
+      </c>
+      <c r="S19" s="3">
+        <v>1</v>
+      </c>
+      <c r="T19" s="7">
+        <v>1.28</v>
+      </c>
+      <c r="U19" s="7">
+        <v>2.08</v>
+      </c>
+      <c r="V19" s="7">
+        <v>4.3516328043767478</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="A20" s="3">
+        <v>3</v>
+      </c>
+      <c r="B20" s="3">
+        <v>2</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0.34973847372000699</v>
+      </c>
+      <c r="D20" s="3">
+        <v>32.4</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="5"/>
+        <v>4.5518404046080354</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="0"/>
+        <v>0.22478224220286597</v>
+      </c>
+      <c r="H20" s="7">
+        <v>1.2820512820512819</v>
+      </c>
+      <c r="I20" s="7">
+        <v>2.0833333333333335</v>
+      </c>
+      <c r="J20" s="7">
+        <v>8.5235521596051935</v>
+      </c>
+      <c r="K20" s="8">
+        <f t="shared" si="1"/>
+        <v>103.62673373631144</v>
+      </c>
+      <c r="L20" s="8">
+        <f t="shared" si="2"/>
+        <v>5.1173695672252553</v>
+      </c>
+      <c r="M20" s="6">
+        <f t="shared" si="6"/>
+        <v>4.9382716049382706E-2</v>
+      </c>
+      <c r="N20" s="2">
+        <f t="shared" si="3"/>
+        <v>10.179721692478211</v>
+      </c>
+      <c r="P20" s="19">
+        <f t="shared" si="4"/>
+        <v>22.765897862193356</v>
+      </c>
+      <c r="R20" s="3">
+        <v>3</v>
+      </c>
+      <c r="S20" s="3">
+        <v>2</v>
+      </c>
+      <c r="T20" s="7">
+        <v>1.2820512820512819</v>
+      </c>
+      <c r="U20" s="7">
+        <v>2.0833333333333335</v>
+      </c>
+      <c r="V20" s="7">
+        <v>8.5235521596051935</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21" s="3">
+        <v>3</v>
+      </c>
+      <c r="B21" s="3">
+        <v>3</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0.36832865758721517</v>
+      </c>
+      <c r="D21" s="3">
+        <v>39.1</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="5"/>
+        <v>5.4931160438325373</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="0"/>
+        <v>0.12644001123911211</v>
+      </c>
+      <c r="H21" s="7">
+        <v>1.2820512820512819</v>
+      </c>
+      <c r="I21" s="7">
+        <v>2.0833333333333335</v>
+      </c>
+      <c r="J21" s="7">
+        <v>12.562974704809397</v>
+      </c>
+      <c r="K21" s="8">
+        <f t="shared" si="1"/>
+        <v>184.32125509949475</v>
+      </c>
+      <c r="L21" s="8">
+        <f t="shared" si="2"/>
+        <v>4.2426887363055048</v>
+      </c>
+      <c r="M21" s="6">
+        <f t="shared" si="6"/>
+        <v>2.3017902813299226E-2</v>
+      </c>
+      <c r="N21" s="2">
+        <f t="shared" si="3"/>
+        <v>13.57649642210739</v>
+      </c>
+      <c r="P21" s="19">
+        <f t="shared" si="4"/>
+        <v>33.554953805580652</v>
+      </c>
+      <c r="R21" s="3">
+        <v>3</v>
+      </c>
+      <c r="S21" s="3">
+        <v>3</v>
+      </c>
+      <c r="T21" s="7">
+        <v>1.2820512820512819</v>
+      </c>
+      <c r="U21" s="7">
+        <v>2.0833333333333335</v>
+      </c>
+      <c r="V21" s="7">
+        <v>12.562974704809397</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22" s="3">
+        <v>3</v>
+      </c>
+      <c r="B22" s="3">
+        <v>4</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0.39177544588705399</v>
+      </c>
+      <c r="D22" s="3">
+        <v>27.7</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="5"/>
+        <v>3.8915425681371167</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="0"/>
+        <v>9.8342230963753857E-2</v>
+      </c>
+      <c r="H22" s="7">
+        <v>1.2658227848101264</v>
+      </c>
+      <c r="I22" s="7">
+        <v>2.0833333333333335</v>
+      </c>
+      <c r="J22" s="7">
+        <v>16.417523761966823</v>
+      </c>
+      <c r="K22" s="8">
+        <f t="shared" si="1"/>
+        <v>168.48494879508573</v>
+      </c>
+      <c r="L22" s="8">
+        <f t="shared" si="2"/>
+        <v>4.2577423883234653</v>
+      </c>
+      <c r="M22" s="6">
+        <f t="shared" si="6"/>
+        <v>2.5270758122743677E-2</v>
+      </c>
+      <c r="N22" s="2">
+        <f t="shared" si="3"/>
+        <v>12.980175222048651</v>
+      </c>
+      <c r="P22" s="19">
+        <f t="shared" si="4"/>
+        <v>43.295157600123481</v>
+      </c>
+      <c r="R22" s="3">
+        <v>3</v>
+      </c>
+      <c r="S22" s="3">
+        <v>4</v>
+      </c>
+      <c r="T22" s="7">
+        <v>1.2658227848101264</v>
+      </c>
+      <c r="U22" s="7">
+        <v>2.0833333333333335</v>
+      </c>
+      <c r="V22" s="7">
+        <v>16.417523761966823</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="A23" s="3">
+        <v>3</v>
+      </c>
+      <c r="B23" s="3">
+        <v>5</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0.41759909003732276</v>
+      </c>
+      <c r="D23" s="3">
+        <v>12.2</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" si="5"/>
+        <v>1.7139645967968529</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="0"/>
+        <v>4.2146670413037365E-2</v>
+      </c>
+      <c r="H23" s="7">
+        <v>1.2658227848101264</v>
+      </c>
+      <c r="I23" s="7">
+        <v>2.0833333333333335</v>
+      </c>
+      <c r="J23" s="7">
+        <v>20.177962165545818</v>
+      </c>
+      <c r="K23" s="8">
+        <f t="shared" si="1"/>
+        <v>91.203356506465951</v>
+      </c>
+      <c r="L23" s="8">
+        <f t="shared" si="2"/>
+        <v>2.2427054878639168</v>
+      </c>
+      <c r="M23" s="6">
+        <f t="shared" si="6"/>
+        <v>2.4590163934426229E-2</v>
+      </c>
+      <c r="N23" s="2">
+        <f t="shared" si="3"/>
+        <v>9.5500448431651854</v>
+      </c>
+      <c r="P23" s="19">
+        <f t="shared" si="4"/>
+        <v>53.211925542051205</v>
+      </c>
+      <c r="R23" s="3">
+        <v>3</v>
+      </c>
+      <c r="S23" s="3">
+        <v>5</v>
+      </c>
+      <c r="T23" s="7">
+        <v>1.2658227848101264</v>
+      </c>
+      <c r="U23" s="7">
+        <v>2.0833333333333335</v>
+      </c>
+      <c r="V23" s="7">
+        <v>20.177962165545818</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="A24" s="3">
+        <v>3</v>
+      </c>
+      <c r="B24" s="3">
+        <v>6</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0.44616140577149882</v>
+      </c>
+      <c r="D24" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" si="5"/>
+        <v>0.49171115481876931</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="0"/>
+        <v>7.0244450688395618E-2</v>
+      </c>
+      <c r="H24" s="7">
+        <v>1.2658227848101264</v>
+      </c>
+      <c r="I24" s="7">
+        <v>2.0833333333333335</v>
+      </c>
+      <c r="J24" s="7">
+        <v>23.814430072303523</v>
+      </c>
+      <c r="K24" s="8">
+        <f t="shared" si="1"/>
+        <v>30.880329409818547</v>
+      </c>
+      <c r="L24" s="8">
+        <f t="shared" si="2"/>
+        <v>4.4114756299740785</v>
+      </c>
+      <c r="M24" s="6">
+        <f t="shared" si="6"/>
+        <v>0.14285714285714288</v>
+      </c>
+      <c r="N24" s="2">
+        <f t="shared" si="3"/>
+        <v>5.557007234997859</v>
+      </c>
+      <c r="P24" s="19">
+        <f t="shared" si="4"/>
+        <v>62.80176706831098</v>
+      </c>
+      <c r="R24" s="3">
+        <v>3</v>
+      </c>
+      <c r="S24" s="3">
+        <v>6</v>
+      </c>
+      <c r="T24" s="7">
+        <v>1.2658227848101264</v>
+      </c>
+      <c r="U24" s="7">
+        <v>2.0833333333333335</v>
+      </c>
+      <c r="V24" s="7">
+        <v>23.814430072303523</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="A25" s="3">
+        <v>4</v>
+      </c>
+      <c r="B25" s="3">
+        <v>-3</v>
+      </c>
+      <c r="C25" s="6">
+        <v>0.43667048184201473</v>
+      </c>
+      <c r="D25" s="3">
+        <v>142</v>
+      </c>
+      <c r="E25" s="2">
+        <v>8</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="5"/>
+        <v>19.949423995504354</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1239112110143299</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1.2345679012345678</v>
+      </c>
+      <c r="I25" s="7">
+        <v>2.0408163265306123</v>
+      </c>
+      <c r="J25" s="7">
+        <v>10.540448150267604</v>
+      </c>
+      <c r="K25" s="8">
+        <f t="shared" si="1"/>
+        <v>529.79558894511968</v>
+      </c>
+      <c r="L25" s="8">
+        <f t="shared" si="2"/>
+        <v>29.847638813809567</v>
+      </c>
+      <c r="M25" s="6">
+        <f t="shared" si="6"/>
+        <v>5.63380281690141E-2</v>
+      </c>
+      <c r="N25" s="2">
+        <f t="shared" si="3"/>
+        <v>23.017288913882098</v>
+      </c>
+      <c r="P25" s="19">
+        <f t="shared" si="4"/>
+        <v>26.556936634587061</v>
+      </c>
+      <c r="R25" s="3">
+        <v>4</v>
+      </c>
+      <c r="S25" s="3">
+        <v>-3</v>
+      </c>
+      <c r="T25" s="7">
+        <v>1.2345679012345678</v>
+      </c>
+      <c r="U25" s="7">
+        <v>2.0408163265306123</v>
+      </c>
+      <c r="V25" s="7">
+        <v>10.540448150267604</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="A26" s="3">
+        <v>4</v>
+      </c>
+      <c r="B26" s="3">
+        <v>-2</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0.43188534077043261</v>
+      </c>
+      <c r="D26" s="3">
+        <v>755.4</v>
+      </c>
+      <c r="E26" s="2">
+        <v>19</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" si="5"/>
+        <v>106.12531610002809</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" si="0"/>
+        <v>2.6692891261590335</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1.2195121951219512</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2.0408163265306123</v>
+      </c>
+      <c r="J26" s="7">
+        <v>6.936910148501739</v>
+      </c>
+      <c r="K26" s="8">
+        <f t="shared" si="1"/>
+        <v>1832.2095128602286</v>
+      </c>
+      <c r="L26" s="8">
+        <f t="shared" si="2"/>
+        <v>46.084168313932153</v>
+      </c>
+      <c r="M26" s="6">
+        <f t="shared" si="6"/>
+        <v>2.5152237225311097E-2</v>
+      </c>
+      <c r="N26" s="2">
+        <f t="shared" si="3"/>
+        <v>42.804316521353648</v>
+      </c>
+      <c r="P26" s="19">
+        <f t="shared" si="4"/>
+        <v>17.264584739924686</v>
+      </c>
+      <c r="R26" s="3">
+        <v>4</v>
+      </c>
+      <c r="S26" s="3">
+        <v>-2</v>
+      </c>
+      <c r="T26" s="7">
+        <v>1.2195121951219512</v>
+      </c>
+      <c r="U26" s="7">
+        <v>2.0408163265306123</v>
+      </c>
+      <c r="V26" s="7">
+        <v>6.936910148501739</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
+      <c r="A27" s="3">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C27" s="6">
+        <v>0.43146721383800929</v>
+      </c>
+      <c r="D27" s="3">
+        <v>429.6</v>
+      </c>
+      <c r="E27" s="2">
+        <v>34</v>
+      </c>
+      <c r="F27" s="2">
+        <f t="shared" si="5"/>
+        <v>60.354032031469515</v>
+      </c>
+      <c r="G27" s="2">
+        <f t="shared" si="0"/>
+        <v>4.7766226468109014</v>
+      </c>
+      <c r="H27" s="7">
+        <v>1.2195121951219512</v>
+      </c>
+      <c r="I27" s="7">
+        <v>2.0408163265306123</v>
+      </c>
+      <c r="J27" s="7">
+        <v>3.3969819281450784</v>
+      </c>
+      <c r="K27" s="8">
+        <f t="shared" si="1"/>
+        <v>510.25773046687686</v>
+      </c>
+      <c r="L27" s="8">
+        <f t="shared" si="2"/>
+        <v>40.383526154268644</v>
+      </c>
+      <c r="M27" s="6">
+        <f t="shared" si="6"/>
+        <v>7.9143389199255107E-2</v>
+      </c>
+      <c r="N27" s="2">
+        <f t="shared" si="3"/>
+        <v>22.588885108983952</v>
+      </c>
+      <c r="P27" s="19">
+        <f t="shared" si="4"/>
+        <v>8.4544099754730677</v>
+      </c>
+      <c r="R27" s="3">
+        <v>4</v>
+      </c>
+      <c r="S27" s="3">
+        <v>-1</v>
+      </c>
+      <c r="T27" s="7">
+        <v>1.2195121951219512</v>
+      </c>
+      <c r="U27" s="7">
+        <v>2.0408163265306123</v>
+      </c>
+      <c r="V27" s="7">
+        <v>3.3969819281450784</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
+      <c r="A28" s="3">
+        <v>4</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0</v>
+      </c>
+      <c r="C28" s="6">
+        <v>0.43506536697007098</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1917</v>
+      </c>
+      <c r="E28" s="2">
+        <v>23</v>
+      </c>
+      <c r="F28" s="2">
+        <f t="shared" si="5"/>
+        <v>269.3172239393088</v>
+      </c>
+      <c r="G28" s="2">
+        <f t="shared" si="0"/>
+        <v>3.2312447316661981</v>
+      </c>
+      <c r="H28" s="7">
+        <v>1.0989010989010988</v>
+      </c>
+      <c r="I28" s="7">
+        <v>2.0408163265306123</v>
+      </c>
+      <c r="J28" s="7">
+        <v>0.43506536697007098</v>
+      </c>
+      <c r="K28" s="8">
+        <f t="shared" si="1"/>
+        <v>262.77326051696832</v>
+      </c>
+      <c r="L28" s="8">
+        <f t="shared" si="2"/>
+        <v>3.1527308251905422</v>
+      </c>
+      <c r="M28" s="6">
+        <f t="shared" si="6"/>
+        <v>1.1997913406364106E-2</v>
+      </c>
+      <c r="N28" s="2">
+        <f t="shared" si="3"/>
+        <v>16.210282555124333</v>
+      </c>
+      <c r="P28" s="19">
+        <f t="shared" si="4"/>
+        <v>0.97570165276983833</v>
+      </c>
+      <c r="R28" s="3">
+        <v>4</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="7">
+        <v>1.0989010989010988</v>
+      </c>
+      <c r="U28" s="7">
+        <v>2.0408163265306123</v>
+      </c>
+      <c r="V28" s="7">
+        <v>0.43506536697007098</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
+      <c r="A29" s="3">
+        <v>4</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="6">
+        <v>0.44309141269042895</v>
+      </c>
+      <c r="D29" s="3">
+        <v>45.3</v>
+      </c>
+      <c r="E29" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="F29" s="2">
+        <f t="shared" si="5"/>
+        <v>6.3641472323686425</v>
+      </c>
+      <c r="G29" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0115200899128969</v>
+      </c>
+      <c r="H29" s="7">
+        <v>1.2195121951219512</v>
+      </c>
+      <c r="I29" s="7">
+        <v>2.0408163265306123</v>
+      </c>
+      <c r="J29" s="7">
+        <v>3.2760591633856699</v>
+      </c>
+      <c r="K29" s="8">
+        <f t="shared" si="1"/>
+        <v>51.889803030703938</v>
+      </c>
+      <c r="L29" s="8">
+        <f t="shared" si="2"/>
+        <v>8.2473859121648641</v>
+      </c>
+      <c r="M29" s="6">
+        <f t="shared" si="6"/>
+        <v>0.15894039735099338</v>
+      </c>
+      <c r="N29" s="2">
+        <f t="shared" si="3"/>
+        <v>7.2034577135361832</v>
+      </c>
+      <c r="P29" s="19">
+        <f t="shared" si="4"/>
+        <v>8.1534573503874324</v>
+      </c>
+      <c r="R29" s="3">
+        <v>4</v>
+      </c>
+      <c r="S29" s="3">
+        <v>1</v>
+      </c>
+      <c r="T29" s="7">
+        <v>1.2195121951219512</v>
+      </c>
+      <c r="U29" s="7">
+        <v>2.0408163265306123</v>
+      </c>
+      <c r="V29" s="7">
+        <v>3.2760591633856699</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="A30" s="3">
+        <v>4</v>
+      </c>
+      <c r="B30" s="3">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6">
+        <v>0.45623971631770233</v>
+      </c>
+      <c r="D30" s="3">
+        <v>43.6</v>
+      </c>
+      <c r="E30" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="F30" s="2">
+        <f t="shared" si="5"/>
+        <v>6.1253161000280976</v>
+      </c>
+      <c r="G30" s="2">
+        <f t="shared" si="0"/>
+        <v>0.33717336330429892</v>
+      </c>
+      <c r="H30" s="7">
+        <v>1.2195121951219512</v>
+      </c>
+      <c r="I30" s="7">
+        <v>2.0408163265306123</v>
+      </c>
+      <c r="J30" s="7">
+        <v>6.3874958428084447</v>
+      </c>
+      <c r="K30" s="8">
+        <f t="shared" si="1"/>
+        <v>97.375388563506988</v>
+      </c>
+      <c r="L30" s="8">
+        <f t="shared" si="2"/>
+        <v>5.3601131319361643</v>
+      </c>
+      <c r="M30" s="6">
+        <f t="shared" si="6"/>
+        <v>5.5045871559633024E-2</v>
+      </c>
+      <c r="N30" s="2">
+        <f t="shared" si="3"/>
+        <v>9.8678968662783966</v>
+      </c>
+      <c r="P30" s="19">
+        <f t="shared" si="4"/>
+        <v>15.897202197134009</v>
+      </c>
+      <c r="R30" s="3">
+        <v>4</v>
+      </c>
+      <c r="S30" s="3">
+        <v>2</v>
+      </c>
+      <c r="T30" s="7">
+        <v>1.2195121951219512</v>
+      </c>
+      <c r="U30" s="7">
+        <v>2.0408163265306123</v>
+      </c>
+      <c r="V30" s="7">
+        <v>6.3874958428084447</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="A31" s="3">
+        <v>4</v>
+      </c>
+      <c r="B31" s="3">
+        <v>3</v>
+      </c>
+      <c r="C31" s="6">
+        <v>0</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="0"/>
+        <v>0.18263557178982859</v>
+      </c>
+      <c r="H31" s="7">
+        <v>1.21</v>
+      </c>
+      <c r="I31" s="7">
+        <v>2.04</v>
+      </c>
+      <c r="J31" s="7">
+        <v>9.5</v>
+      </c>
+      <c r="K31" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="8">
+        <f t="shared" si="2"/>
+        <v>4.2827676313571228</v>
+      </c>
+      <c r="M31" s="6"/>
+      <c r="N31" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="19">
+        <f t="shared" si="4"/>
+        <v>23.4498</v>
+      </c>
+      <c r="R31" s="3">
+        <v>4</v>
+      </c>
+      <c r="S31" s="3">
+        <v>3</v>
+      </c>
+      <c r="T31" s="7">
+        <v>1.21</v>
+      </c>
+      <c r="U31" s="7">
+        <v>2.04</v>
+      </c>
+      <c r="V31" s="7">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="A32" s="3">
+        <v>4</v>
+      </c>
+      <c r="B32" s="3">
+        <v>4</v>
+      </c>
+      <c r="C32" s="6">
+        <v>0.49272653618550721</v>
+      </c>
+      <c r="D32" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="F32" s="2">
+        <f t="shared" si="5"/>
+        <v>0.2950266928912616</v>
+      </c>
+      <c r="G32" s="2">
+        <f t="shared" si="0"/>
+        <v>5.6195560550716492E-2</v>
+      </c>
+      <c r="H32" s="7">
+        <v>1.2048192771084338</v>
+      </c>
+      <c r="I32" s="7">
+        <v>2.0408163265306123</v>
+      </c>
+      <c r="J32" s="7">
+        <v>12.600124738168647</v>
+      </c>
+      <c r="K32" s="8">
+        <f t="shared" si="1"/>
+        <v>9.1403322633864512</v>
+      </c>
+      <c r="L32" s="8">
+        <f t="shared" si="2"/>
+        <v>1.7410156692164669</v>
+      </c>
+      <c r="M32" s="6">
+        <f t="shared" si="6"/>
+        <v>0.19047619047619047</v>
+      </c>
+      <c r="N32" s="2">
+        <f t="shared" si="3"/>
+        <v>3.0232982425467805</v>
+      </c>
+      <c r="P32" s="19">
+        <f t="shared" si="4"/>
+        <v>30.981373833707028</v>
+      </c>
+      <c r="R32" s="3">
+        <v>4</v>
+      </c>
+      <c r="S32" s="3">
+        <v>4</v>
+      </c>
+      <c r="T32" s="7">
+        <v>1.2048192771084338</v>
+      </c>
+      <c r="U32" s="7">
+        <v>2.0408163265306123</v>
+      </c>
+      <c r="V32" s="7">
+        <v>12.600124738168647</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
+      <c r="A33" s="3">
+        <v>4</v>
+      </c>
+      <c r="B33" s="3">
+        <v>5</v>
+      </c>
+      <c r="C33" s="6">
+        <v>0.51435757590665054</v>
+      </c>
+      <c r="D33" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="F33" s="2">
+        <f t="shared" si="5"/>
+        <v>0.44956448440573193</v>
+      </c>
+      <c r="G33" s="2">
+        <f t="shared" si="0"/>
+        <v>4.2146670413037365E-2</v>
+      </c>
+      <c r="H33" s="7">
+        <v>1.2048192771084338</v>
+      </c>
+      <c r="I33" s="7">
+        <v>2.0408163265306123</v>
+      </c>
+      <c r="J33" s="7">
+        <v>15.48536659586625</v>
+      </c>
+      <c r="K33" s="8">
+        <f t="shared" si="1"/>
+        <v>17.117459674217741</v>
+      </c>
+      <c r="L33" s="8">
+        <f t="shared" si="2"/>
+        <v>1.604761844457913</v>
+      </c>
+      <c r="M33" s="6">
+        <f t="shared" si="6"/>
+        <v>9.3749999999999986E-2</v>
+      </c>
+      <c r="N33" s="2">
+        <f t="shared" si="3"/>
+        <v>4.1373251835234974</v>
+      </c>
+      <c r="P33" s="19">
+        <f t="shared" si="4"/>
+        <v>38.075649362838092</v>
+      </c>
+      <c r="R33" s="3">
+        <v>4</v>
+      </c>
+      <c r="S33" s="3">
+        <v>5</v>
+      </c>
+      <c r="T33" s="7">
+        <v>1.2048192771084338</v>
+      </c>
+      <c r="U33" s="7">
+        <v>2.0408163265306123</v>
+      </c>
+      <c r="V33" s="7">
+        <v>15.48536659586625</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
+      <c r="A34" s="3">
+        <v>4</v>
+      </c>
+      <c r="B34" s="3">
+        <v>6</v>
+      </c>
+      <c r="C34" s="6">
+        <v>0.53945835340385007</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1</v>
+      </c>
+      <c r="E34" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F34" s="2">
+        <f t="shared" si="5"/>
+        <v>0.14048890137679124</v>
+      </c>
+      <c r="G34" s="2">
+        <f t="shared" si="0"/>
+        <v>0.15453779151447036</v>
+      </c>
+      <c r="H34" s="7">
+        <v>1.2048192771084338</v>
+      </c>
+      <c r="I34" s="7">
+        <v>2.0408163265306123</v>
+      </c>
+      <c r="J34" s="7">
+        <v>18.352625473383341</v>
+      </c>
+      <c r="K34" s="8">
+        <f t="shared" si="1"/>
+        <v>6.3396611510581247</v>
+      </c>
+      <c r="L34" s="8">
+        <f t="shared" si="2"/>
+        <v>6.9736272661639367</v>
+      </c>
+      <c r="M34" s="6">
+        <f t="shared" si="6"/>
+        <v>1.0999999999999999</v>
+      </c>
+      <c r="N34" s="2">
+        <f t="shared" si="3"/>
+        <v>2.5178683744505239</v>
+      </c>
+      <c r="P34" s="19">
+        <f t="shared" si="4"/>
+        <v>45.125708073231728</v>
+      </c>
+      <c r="R34" s="3">
+        <v>4</v>
+      </c>
+      <c r="S34" s="3">
+        <v>6</v>
+      </c>
+      <c r="T34" s="7">
+        <v>1.2048192771084338</v>
+      </c>
+      <c r="U34" s="7">
+        <v>2.0408163265306123</v>
+      </c>
+      <c r="V34" s="7">
+        <v>18.352625473383341</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
+      <c r="A35" s="3">
+        <v>5</v>
+      </c>
+      <c r="B35" s="3">
+        <v>-3</v>
+      </c>
+      <c r="C35" s="6">
+        <v>0.54113245597020643</v>
+      </c>
+      <c r="D35" s="3">
+        <v>86.2</v>
+      </c>
+      <c r="E35" s="2">
+        <v>6.8</v>
+      </c>
+      <c r="F35" s="2">
+        <f t="shared" si="5"/>
+        <v>12.110143298679404</v>
+      </c>
+      <c r="G35" s="2">
+        <f t="shared" si="0"/>
+        <v>0.95532452936218026</v>
+      </c>
+      <c r="H35" s="7">
+        <v>1.1904761904761905</v>
+      </c>
+      <c r="I35" s="7">
+        <v>2</v>
+      </c>
+      <c r="J35" s="7">
+        <v>8.4352762614756625</v>
+      </c>
+      <c r="K35" s="8">
+        <f t="shared" si="1"/>
+        <v>243.22001021528322</v>
+      </c>
+      <c r="L35" s="8">
+        <f t="shared" si="2"/>
+        <v>19.18672934412907</v>
+      </c>
+      <c r="M35" s="6">
+        <f t="shared" si="6"/>
+        <v>7.8886310904872387E-2</v>
+      </c>
+      <c r="N35" s="2">
+        <f t="shared" si="3"/>
+        <v>15.595512502488759</v>
+      </c>
+      <c r="P35" s="19">
+        <f t="shared" si="4"/>
+        <v>20.083991098751579</v>
+      </c>
+      <c r="R35" s="3">
+        <v>5</v>
+      </c>
+      <c r="S35" s="3">
+        <v>-3</v>
+      </c>
+      <c r="T35" s="7">
+        <v>1.1904761904761905</v>
+      </c>
+      <c r="U35" s="7">
+        <v>2</v>
+      </c>
+      <c r="V35" s="7">
+        <v>8.4352762614756625</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
+      <c r="A36" s="3">
+        <v>5</v>
+      </c>
+      <c r="B36" s="3">
+        <v>-2</v>
+      </c>
+      <c r="C36" s="6">
+        <v>0.53869425710269536</v>
+      </c>
+      <c r="D36" s="3">
+        <v>145</v>
+      </c>
+      <c r="E36" s="2">
+        <v>4</v>
+      </c>
+      <c r="F36" s="2">
+        <f t="shared" si="5"/>
+        <v>20.370890699634728</v>
+      </c>
+      <c r="G36" s="2">
+        <f t="shared" si="0"/>
+        <v>0.56195560550716495</v>
+      </c>
+      <c r="H36" s="7">
+        <v>1.1904761904761905</v>
+      </c>
+      <c r="I36" s="7">
+        <v>2</v>
+      </c>
+      <c r="J36" s="7">
+        <v>5.4852955274185771</v>
+      </c>
+      <c r="K36" s="8">
+        <f t="shared" si="1"/>
+        <v>266.04846581961681</v>
+      </c>
+      <c r="L36" s="8">
+        <f t="shared" si="2"/>
+        <v>7.3392680226101197</v>
+      </c>
+      <c r="M36" s="6">
+        <f t="shared" si="6"/>
+        <v>2.7586206896551727E-2</v>
+      </c>
+      <c r="N36" s="2">
+        <f t="shared" si="3"/>
+        <v>16.310992177657887</v>
+      </c>
+      <c r="P36" s="19">
+        <f t="shared" si="4"/>
+        <v>13.060227446234707</v>
+      </c>
+      <c r="R36" s="3">
+        <v>5</v>
+      </c>
+      <c r="S36" s="3">
+        <v>-2</v>
+      </c>
+      <c r="T36" s="7">
+        <v>1.1904761904761905</v>
+      </c>
+      <c r="U36" s="7">
+        <v>2</v>
+      </c>
+      <c r="V36" s="7">
+        <v>5.4852955274185771</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22">
+      <c r="A37" s="3">
+        <v>5</v>
+      </c>
+      <c r="B37" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C37" s="6">
+        <v>0.54012695627595519</v>
+      </c>
+      <c r="D37" s="3">
+        <v>63.4</v>
+      </c>
+      <c r="E37" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="F37" s="2">
+        <f t="shared" si="5"/>
+        <v>8.9069963472885636</v>
+      </c>
+      <c r="G37" s="2">
+        <f t="shared" si="0"/>
+        <v>0.47766226468109013</v>
+      </c>
+      <c r="H37" s="7">
+        <v>1.1904761904761905</v>
+      </c>
+      <c r="I37" s="7">
+        <v>2</v>
+      </c>
+      <c r="J37" s="7">
+        <v>2.6421171245797863</v>
+      </c>
+      <c r="K37" s="8">
+        <f t="shared" si="1"/>
+        <v>56.031732327954096</v>
+      </c>
+      <c r="L37" s="8">
+        <f t="shared" si="2"/>
+        <v>3.004856307808264</v>
+      </c>
+      <c r="M37" s="6">
+        <f t="shared" si="6"/>
+        <v>5.362776025236593E-2</v>
+      </c>
+      <c r="N37" s="2">
+        <f t="shared" si="3"/>
+        <v>7.4854346786244879</v>
+      </c>
+      <c r="P37" s="19">
+        <f t="shared" si="4"/>
+        <v>6.2907550585233007</v>
+      </c>
+      <c r="R37" s="3">
+        <v>5</v>
+      </c>
+      <c r="S37" s="3">
+        <v>-1</v>
+      </c>
+      <c r="T37" s="7">
+        <v>1.1904761904761905</v>
+      </c>
+      <c r="U37" s="7">
+        <v>2</v>
+      </c>
+      <c r="V37" s="7">
+        <v>2.6421171245797863</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22">
+      <c r="A38" s="3">
+        <v>5</v>
+      </c>
+      <c r="B38" s="3">
+        <v>0</v>
+      </c>
+      <c r="C38" s="6">
+        <v>0.54370092037490203</v>
+      </c>
+      <c r="D38" s="3">
+        <v>260</v>
+      </c>
+      <c r="E38" s="2">
+        <v>4</v>
+      </c>
+      <c r="F38" s="2">
+        <f t="shared" si="5"/>
+        <v>36.527114357965722</v>
+      </c>
+      <c r="G38" s="2">
+        <f t="shared" si="0"/>
+        <v>0.56195560550716495</v>
+      </c>
+      <c r="H38" s="7">
+        <v>1.075268817204301</v>
+      </c>
+      <c r="I38" s="7">
+        <v>2</v>
+      </c>
+      <c r="J38" s="7">
+        <v>0.54370092037490203</v>
+      </c>
+      <c r="K38" s="8">
+        <f t="shared" si="1"/>
+        <v>42.709302570032818</v>
+      </c>
+      <c r="L38" s="8">
+        <f t="shared" si="2"/>
+        <v>0.65706619338512029</v>
+      </c>
+      <c r="M38" s="6">
+        <f t="shared" si="6"/>
+        <v>1.5384615384615385E-2</v>
+      </c>
+      <c r="N38" s="2">
+        <f t="shared" si="3"/>
+        <v>6.5352354640083794</v>
+      </c>
+      <c r="P38" s="19">
+        <f t="shared" si="4"/>
+        <v>1.1692492911288215</v>
+      </c>
+      <c r="R38" s="3">
+        <v>5</v>
+      </c>
+      <c r="S38" s="3">
+        <v>0</v>
+      </c>
+      <c r="T38" s="7">
+        <v>1.075268817204301</v>
+      </c>
+      <c r="U38" s="7">
+        <v>2</v>
+      </c>
+      <c r="V38" s="7">
+        <v>0.54370092037490203</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22">
+      <c r="A39" s="3">
+        <v>5</v>
+      </c>
+      <c r="B39" s="3">
+        <v>1</v>
+      </c>
+      <c r="C39" s="6">
+        <v>0.55141360694549746</v>
+      </c>
+      <c r="D39" s="3">
+        <v>50</v>
+      </c>
+      <c r="E39" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="F39" s="2">
+        <f t="shared" si="5"/>
+        <v>7.0244450688395617</v>
+      </c>
+      <c r="G39" s="2">
+        <f t="shared" si="0"/>
+        <v>0.39336892385501543</v>
+      </c>
+      <c r="H39" s="7">
+        <v>1.1904761904761905</v>
+      </c>
+      <c r="I39" s="7">
+        <v>2</v>
+      </c>
+      <c r="J39" s="7">
+        <v>2.42511665953245</v>
+      </c>
+      <c r="K39" s="8">
+        <f t="shared" si="1"/>
+        <v>40.559758953365211</v>
+      </c>
+      <c r="L39" s="8">
+        <f t="shared" si="2"/>
+        <v>2.2713465013884515</v>
+      </c>
+      <c r="M39" s="6">
+        <f t="shared" si="6"/>
+        <v>5.5999999999999994E-2</v>
+      </c>
+      <c r="N39" s="2">
+        <f t="shared" si="3"/>
+        <v>6.3686544068088047</v>
+      </c>
+      <c r="P39" s="19">
+        <f t="shared" si="4"/>
+        <v>5.7740872846010713</v>
+      </c>
+      <c r="R39" s="3">
+        <v>5</v>
+      </c>
+      <c r="S39" s="3">
+        <v>1</v>
+      </c>
+      <c r="T39" s="7">
+        <v>1.1904761904761905</v>
+      </c>
+      <c r="U39" s="7">
+        <v>2</v>
+      </c>
+      <c r="V39" s="7">
+        <v>2.42511665953245</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22">
+      <c r="A40" s="3">
+        <v>6</v>
+      </c>
+      <c r="B40" s="3">
+        <v>-4</v>
+      </c>
+      <c r="C40" s="6">
+        <v>0.65229693038596093</v>
+      </c>
+      <c r="D40" s="3">
+        <v>11.4</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="F40" s="2">
+        <f t="shared" si="5"/>
+        <v>1.6015734756954201</v>
+      </c>
+      <c r="G40" s="2">
+        <f t="shared" si="0"/>
+        <v>0.11239112110143298</v>
+      </c>
+      <c r="H40" s="7">
+        <v>1.1627906976744187</v>
+      </c>
+      <c r="I40" s="7">
+        <v>2</v>
+      </c>
+      <c r="J40" s="7">
+        <v>9.3644602750803063</v>
+      </c>
+      <c r="K40" s="8">
+        <f t="shared" si="1"/>
+        <v>34.878770211097809</v>
+      </c>
+      <c r="L40" s="8">
+        <f t="shared" si="2"/>
+        <v>2.4476329972700213</v>
+      </c>
+      <c r="M40" s="6">
+        <f t="shared" si="6"/>
+        <v>7.017543859649121E-2</v>
+      </c>
+      <c r="N40" s="2">
+        <f t="shared" si="3"/>
+        <v>5.9058251084076145</v>
+      </c>
+      <c r="P40" s="19">
+        <f t="shared" si="4"/>
+        <v>21.777814593210017</v>
+      </c>
+      <c r="R40" s="3">
+        <v>6</v>
+      </c>
+      <c r="S40" s="3">
+        <v>-4</v>
+      </c>
+      <c r="T40" s="7">
+        <v>1.1627906976744187</v>
+      </c>
+      <c r="U40" s="7">
+        <v>2</v>
+      </c>
+      <c r="V40" s="7">
+        <v>9.3644602750803063</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22">
+      <c r="A41" s="3">
+        <v>6</v>
+      </c>
+      <c r="B41" s="3">
+        <v>-3</v>
+      </c>
+      <c r="C41" s="6">
+        <v>0.64792489969455835</v>
+      </c>
+      <c r="D41" s="3">
+        <v>15.6</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="F41" s="2">
+        <f t="shared" si="5"/>
+        <v>2.1916268614779431</v>
+      </c>
+      <c r="G41" s="2">
+        <f t="shared" si="0"/>
+        <v>0.12644001123911211</v>
+      </c>
+      <c r="H41" s="7">
+        <v>1.1627906976744187</v>
+      </c>
+      <c r="I41" s="7">
+        <v>2</v>
+      </c>
+      <c r="J41" s="7">
+        <v>6.9203264649784115</v>
+      </c>
+      <c r="K41" s="8">
+        <f t="shared" si="1"/>
+        <v>35.271565978705546</v>
+      </c>
+      <c r="L41" s="8">
+        <f t="shared" si="2"/>
+        <v>2.0348980372330128</v>
+      </c>
+      <c r="M41" s="6">
+        <f t="shared" si="6"/>
+        <v>5.7692307692307709E-2</v>
+      </c>
+      <c r="N41" s="2">
+        <f t="shared" si="3"/>
+        <v>5.9389869488579903</v>
+      </c>
+      <c r="P41" s="19">
+        <f t="shared" si="4"/>
+        <v>16.093782476693981</v>
+      </c>
+      <c r="R41" s="3">
+        <v>6</v>
+      </c>
+      <c r="S41" s="3">
+        <v>-3</v>
+      </c>
+      <c r="T41" s="7">
+        <v>1.1627906976744187</v>
+      </c>
+      <c r="U41" s="7">
+        <v>2</v>
+      </c>
+      <c r="V41" s="7">
+        <v>6.9203264649784115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22">
+      <c r="A42" s="3">
+        <v>6</v>
+      </c>
+      <c r="B42" s="3">
+        <v>-2</v>
+      </c>
+      <c r="C42" s="6">
+        <v>0.64649758477473851</v>
+      </c>
+      <c r="D42" s="3">
+        <v>10.1</v>
+      </c>
+      <c r="E42" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="F42" s="2">
+        <f t="shared" si="5"/>
+        <v>1.4189379039055914</v>
+      </c>
+      <c r="G42" s="2">
+        <f t="shared" si="0"/>
+        <v>0.25288002247822422</v>
+      </c>
+      <c r="H42" s="7">
+        <v>1.1627906976744187</v>
+      </c>
+      <c r="I42" s="7">
+        <v>2</v>
+      </c>
+      <c r="J42" s="7">
+        <v>4.4673761135018726</v>
+      </c>
+      <c r="K42" s="8">
+        <f t="shared" si="1"/>
+        <v>14.74169604290757</v>
+      </c>
+      <c r="L42" s="8">
+        <f t="shared" si="2"/>
+        <v>2.6272329581419434</v>
+      </c>
+      <c r="M42" s="6">
+        <f t="shared" si="6"/>
+        <v>0.17821782178217824</v>
+      </c>
+      <c r="N42" s="2">
+        <f t="shared" si="3"/>
+        <v>3.8394916386036799</v>
+      </c>
+      <c r="P42" s="19">
+        <f t="shared" si="4"/>
+        <v>10.38924677558575</v>
+      </c>
+      <c r="R42" s="3">
+        <v>6</v>
+      </c>
+      <c r="S42" s="3">
+        <v>-2</v>
+      </c>
+      <c r="T42" s="7">
+        <v>1.1627906976744187</v>
+      </c>
+      <c r="U42" s="7">
+        <v>2</v>
+      </c>
+      <c r="V42" s="7">
+        <v>4.4673761135018726</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22">
+      <c r="A43" s="3">
+        <v>6</v>
+      </c>
+      <c r="B43" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C43" s="6">
+        <v>0.64842732823347293</v>
+      </c>
+      <c r="D43" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="E43" s="2">
+        <v>3</v>
+      </c>
+      <c r="F43" s="2">
+        <f t="shared" si="5"/>
+        <v>2.2899690924416971</v>
+      </c>
+      <c r="G43" s="2">
+        <f t="shared" si="0"/>
+        <v>0.42146670413037368</v>
+      </c>
+      <c r="H43" s="7">
+        <v>1.1627906976744187</v>
+      </c>
+      <c r="I43" s="7">
+        <v>2</v>
+      </c>
+      <c r="J43" s="7">
+        <v>2.2329862303757038</v>
+      </c>
+      <c r="K43" s="8">
+        <f t="shared" si="1"/>
+        <v>11.891789421879668</v>
+      </c>
+      <c r="L43" s="8">
+        <f t="shared" si="2"/>
+        <v>2.1886728997324538</v>
+      </c>
+      <c r="M43" s="6">
+        <f t="shared" si="6"/>
+        <v>0.18404907975460119</v>
+      </c>
+      <c r="N43" s="2">
+        <f t="shared" si="3"/>
+        <v>3.4484473929407229</v>
+      </c>
+      <c r="P43" s="19">
+        <f t="shared" si="4"/>
+        <v>5.1929912334318695</v>
+      </c>
+      <c r="R43" s="3">
+        <v>6</v>
+      </c>
+      <c r="S43" s="3">
+        <v>-1</v>
+      </c>
+      <c r="T43" s="7">
+        <v>1.1627906976744187</v>
+      </c>
+      <c r="U43" s="7">
+        <v>2</v>
+      </c>
+      <c r="V43" s="7">
+        <v>2.2329862303757038</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22">
+      <c r="A44" s="3">
+        <v>6</v>
+      </c>
+      <c r="B44" s="3">
+        <v>0</v>
+      </c>
+      <c r="C44" s="6">
+        <v>0.65283842913362999</v>
+      </c>
+      <c r="D44" s="3">
+        <v>60.2</v>
+      </c>
+      <c r="E44" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="F44" s="2">
+        <f t="shared" si="5"/>
+        <v>8.4574318628828316</v>
+      </c>
+      <c r="G44" s="2">
+        <f t="shared" si="0"/>
+        <v>0.66029783647091878</v>
+      </c>
+      <c r="H44" s="7">
+        <v>1.0638297872340425</v>
+      </c>
+      <c r="I44" s="7">
+        <v>2</v>
+      </c>
+      <c r="J44" s="7">
+        <v>0.65283842913362999</v>
+      </c>
+      <c r="K44" s="8">
+        <f t="shared" si="1"/>
+        <v>11.747524535891783</v>
+      </c>
+      <c r="L44" s="8">
+        <f t="shared" si="2"/>
+        <v>0.91716553685533853</v>
+      </c>
+      <c r="M44" s="6">
+        <f t="shared" si="6"/>
+        <v>7.8073089700996676E-2</v>
+      </c>
+      <c r="N44" s="2">
+        <f t="shared" si="3"/>
+        <v>3.4274661976293483</v>
+      </c>
+      <c r="P44" s="19">
+        <f t="shared" si="4"/>
+        <v>1.3890179343268723</v>
+      </c>
+      <c r="R44" s="3">
+        <v>6</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="7">
+        <v>1.0638297872340425</v>
+      </c>
+      <c r="U44" s="7">
+        <v>2</v>
+      </c>
+      <c r="V44" s="7">
+        <v>0.65283842913362999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22">
+      <c r="A45" s="3">
+        <v>6</v>
+      </c>
+      <c r="B45" s="3">
+        <v>1</v>
+      </c>
+      <c r="C45" s="6">
+        <v>0.66046725884028501</v>
+      </c>
+      <c r="D45" s="3">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="E45" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="F45" s="2">
+        <f t="shared" si="5"/>
+        <v>2.8659735880865407</v>
+      </c>
+      <c r="G45" s="2">
+        <f t="shared" si="0"/>
+        <v>0.21073335206518684</v>
+      </c>
+      <c r="H45" s="7">
+        <v>1.1627906976744187</v>
+      </c>
+      <c r="I45" s="7">
+        <v>2</v>
+      </c>
+      <c r="J45" s="7">
+        <v>2.2433091719778218</v>
+      </c>
+      <c r="K45" s="8">
+        <f t="shared" si="1"/>
+        <v>14.951778690234244</v>
+      </c>
+      <c r="L45" s="8">
+        <f t="shared" si="2"/>
+        <v>1.0993954919289886</v>
+      </c>
+      <c r="M45" s="6">
+        <f t="shared" si="6"/>
+        <v>7.3529411764705885E-2</v>
+      </c>
+      <c r="N45" s="2">
+        <f t="shared" si="3"/>
+        <v>3.8667529905896814</v>
+      </c>
+      <c r="P45" s="19">
+        <f t="shared" si="4"/>
+        <v>5.2169980743670274</v>
+      </c>
+      <c r="R45" s="3">
+        <v>6</v>
+      </c>
+      <c r="S45" s="3">
+        <v>1</v>
+      </c>
+      <c r="T45" s="7">
+        <v>1.1627906976744187</v>
+      </c>
+      <c r="U45" s="7">
+        <v>2</v>
+      </c>
+      <c r="V45" s="7">
+        <v>2.2433091719778218</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22">
+      <c r="A46" s="3">
+        <v>6</v>
+      </c>
+      <c r="B46" s="3">
+        <v>2</v>
+      </c>
+      <c r="C46" s="6">
+        <v>0</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="F46" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G46" s="2">
+        <f t="shared" si="0"/>
+        <v>8.4293340826074731E-2</v>
+      </c>
+      <c r="H46" s="7">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="I46" s="7">
+        <v>2</v>
+      </c>
+      <c r="J46" s="7">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K46" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L46" s="8">
+        <f t="shared" si="2"/>
+        <v>0.86046642315257083</v>
+      </c>
+      <c r="M46" s="6"/>
+      <c r="N46" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P46" s="19">
+        <f t="shared" si="4"/>
+        <v>10.208</v>
+      </c>
+      <c r="R46" s="3">
+        <v>6</v>
+      </c>
+      <c r="S46" s="3">
+        <v>2</v>
+      </c>
+      <c r="T46" s="7">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="U46" s="7">
+        <v>2</v>
+      </c>
+      <c r="V46" s="7">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22">
+      <c r="A47" s="3">
+        <v>6</v>
+      </c>
+      <c r="B47" s="3">
+        <v>3</v>
+      </c>
+      <c r="C47" s="6">
+        <v>0.68408945820278377</v>
+      </c>
+      <c r="D47" s="3">
+        <v>5.9</v>
+      </c>
+      <c r="E47" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="F47" s="2">
+        <f t="shared" si="5"/>
+        <v>0.82888451812306829</v>
+      </c>
+      <c r="G47" s="2">
+        <f t="shared" si="0"/>
+        <v>4.2146670413037365E-2</v>
+      </c>
+      <c r="H47" s="7">
+        <v>1.1494252873563218</v>
+      </c>
+      <c r="I47" s="7">
+        <v>2</v>
+      </c>
+      <c r="J47" s="7">
+        <v>6.3756218912684952</v>
+      </c>
+      <c r="K47" s="8">
+        <f t="shared" si="1"/>
+        <v>12.148630526618327</v>
+      </c>
+      <c r="L47" s="8">
+        <f t="shared" si="2"/>
+        <v>0.61772697592974535</v>
+      </c>
+      <c r="M47" s="6">
+        <f t="shared" si="6"/>
+        <v>5.084745762711864E-2</v>
+      </c>
+      <c r="N47" s="2">
+        <f t="shared" si="3"/>
+        <v>3.4854885635472006</v>
+      </c>
+      <c r="P47" s="19">
+        <f t="shared" si="4"/>
+        <v>14.656602048893092</v>
+      </c>
+      <c r="R47" s="3">
+        <v>6</v>
+      </c>
+      <c r="S47" s="3">
+        <v>3</v>
+      </c>
+      <c r="T47" s="7">
+        <v>1.1494252873563218</v>
+      </c>
+      <c r="U47" s="7">
+        <v>2</v>
+      </c>
+      <c r="V47" s="7">
+        <v>6.3756218912684952</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22">
+      <c r="A48" s="3">
+        <v>6</v>
+      </c>
+      <c r="B48" s="3">
+        <v>4</v>
+      </c>
+      <c r="C48" s="6">
+        <v>0.70028589245122541</v>
+      </c>
+      <c r="D48" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="E48" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="F48" s="2">
+        <f t="shared" si="5"/>
+        <v>0.5900533857825232</v>
+      </c>
+      <c r="G48" s="2">
+        <f t="shared" si="0"/>
+        <v>4.2146670413037365E-2</v>
+      </c>
+      <c r="H48" s="7">
+        <v>1.1494252873563218</v>
+      </c>
+      <c r="I48" s="7">
+        <v>2</v>
+      </c>
+      <c r="J48" s="7">
+        <v>8.39960924324504</v>
+      </c>
+      <c r="K48" s="8">
+        <f t="shared" si="1"/>
+        <v>11.393604306268767</v>
+      </c>
+      <c r="L48" s="8">
+        <f t="shared" si="2"/>
+        <v>0.81382887901919743</v>
+      </c>
+      <c r="M48" s="6">
+        <f t="shared" si="6"/>
+        <v>7.1428571428571411E-2</v>
+      </c>
+      <c r="N48" s="2">
+        <f t="shared" si="3"/>
+        <v>3.3754413498487521</v>
+      </c>
+      <c r="P48" s="19">
+        <f t="shared" si="4"/>
+        <v>19.309446536195495</v>
+      </c>
+      <c r="R48" s="3">
+        <v>6</v>
+      </c>
+      <c r="S48" s="3">
+        <v>4</v>
+      </c>
+      <c r="T48" s="7">
+        <v>1.1494252873563218</v>
+      </c>
+      <c r="U48" s="7">
+        <v>2</v>
+      </c>
+      <c r="V48" s="7">
+        <v>8.39960924324504</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22">
+      <c r="A49" s="3">
+        <v>7</v>
+      </c>
+      <c r="B49" s="3">
+        <v>-4</v>
+      </c>
+      <c r="C49" s="6">
+        <v>0.7572805224299487</v>
+      </c>
+      <c r="D49" s="3">
+        <v>40</v>
+      </c>
+      <c r="E49" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F49" s="2">
+        <f t="shared" si="5"/>
+        <v>5.6195560550716488</v>
+      </c>
+      <c r="G49" s="2">
+        <f t="shared" si="0"/>
+        <v>0.15453779151447036</v>
+      </c>
+      <c r="H49" s="7">
+        <v>1.1363636363636365</v>
+      </c>
+      <c r="I49" s="7">
+        <v>1.9607843137254901</v>
+      </c>
+      <c r="J49" s="7">
+        <v>7.935674776714797</v>
+      </c>
+      <c r="K49" s="8">
+        <f t="shared" si="1"/>
+        <v>99.364904729427352</v>
+      </c>
+      <c r="L49" s="8">
+        <f t="shared" si="2"/>
+        <v>2.7325348800592524</v>
+      </c>
+      <c r="M49" s="6">
+        <f t="shared" si="6"/>
+        <v>2.7500000000000004E-2</v>
+      </c>
+      <c r="N49" s="2">
+        <f t="shared" si="3"/>
+        <v>9.9681946574807299</v>
+      </c>
+      <c r="P49" s="19">
+        <f t="shared" si="4"/>
+        <v>17.681984796601601</v>
+      </c>
+      <c r="R49" s="3">
+        <v>7</v>
+      </c>
+      <c r="S49" s="3">
+        <v>-4</v>
+      </c>
+      <c r="T49" s="7">
+        <v>1.1363636363636365</v>
+      </c>
+      <c r="U49" s="7">
+        <v>1.9607843137254901</v>
+      </c>
+      <c r="V49" s="7">
+        <v>7.935674776714797</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22">
+      <c r="A50" s="3">
+        <v>7</v>
+      </c>
+      <c r="B50" s="3">
+        <v>-3</v>
+      </c>
+      <c r="C50" s="6">
+        <v>0.75444431494089825</v>
+      </c>
+      <c r="D50" s="3">
+        <v>36</v>
+      </c>
+      <c r="E50" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="F50" s="2">
+        <f t="shared" si="5"/>
+        <v>5.0576004495644842</v>
+      </c>
+      <c r="G50" s="2">
+        <f t="shared" si="0"/>
+        <v>0.25288002247822422</v>
+      </c>
+      <c r="H50" s="7">
+        <v>1.1363636363636365</v>
+      </c>
+      <c r="I50" s="7">
+        <v>1.9607843137254901</v>
+      </c>
+      <c r="J50" s="7">
+        <v>5.8611404424056683</v>
+      </c>
+      <c r="K50" s="8">
+        <f t="shared" si="1"/>
+        <v>66.050148254169997</v>
+      </c>
+      <c r="L50" s="8">
+        <f t="shared" si="2"/>
+        <v>3.3025074127084997</v>
+      </c>
+      <c r="M50" s="6">
+        <f t="shared" si="6"/>
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="N50" s="2">
+        <f t="shared" si="3"/>
+        <v>8.1271242302655864</v>
+      </c>
+      <c r="P50" s="19">
+        <f t="shared" si="4"/>
+        <v>13.059582090921722</v>
+      </c>
+      <c r="R50" s="3">
+        <v>7</v>
+      </c>
+      <c r="S50" s="3">
+        <v>-3</v>
+      </c>
+      <c r="T50" s="7">
+        <v>1.1363636363636365</v>
+      </c>
+      <c r="U50" s="7">
+        <v>1.9607843137254901</v>
+      </c>
+      <c r="V50" s="7">
+        <v>5.8611404424056683</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22">
+      <c r="A51" s="3">
+        <v>7</v>
+      </c>
+      <c r="B51" s="3">
+        <v>-2</v>
+      </c>
+      <c r="C51" s="6">
+        <v>0.75426490834861581</v>
+      </c>
+      <c r="D51" s="3">
+        <v>15</v>
+      </c>
+      <c r="E51" s="2">
+        <v>7.3</v>
+      </c>
+      <c r="F51" s="2">
+        <f t="shared" si="5"/>
+        <v>2.1073335206518684</v>
+      </c>
+      <c r="G51" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0255689800505758</v>
+      </c>
+      <c r="H51" s="7">
+        <v>1.1363636363636365</v>
+      </c>
+      <c r="I51" s="7">
+        <v>1.9607843137254901</v>
+      </c>
+      <c r="J51" s="7">
+        <v>3.8201398879967852</v>
+      </c>
+      <c r="K51" s="8">
+        <f t="shared" si="1"/>
+        <v>17.9374082877783</v>
+      </c>
+      <c r="L51" s="8">
+        <f t="shared" si="2"/>
+        <v>8.7295387000521032</v>
+      </c>
+      <c r="M51" s="6">
+        <f t="shared" si="6"/>
+        <v>0.48666666666666653</v>
+      </c>
+      <c r="N51" s="2">
+        <f t="shared" si="3"/>
+        <v>4.2352577593079621</v>
+      </c>
+      <c r="P51" s="19">
+        <f t="shared" si="4"/>
+        <v>8.5118981461603962</v>
+      </c>
+      <c r="R51" s="3">
+        <v>7</v>
+      </c>
+      <c r="S51" s="3">
+        <v>-2</v>
+      </c>
+      <c r="T51" s="7">
+        <v>1.1363636363636365</v>
+      </c>
+      <c r="U51" s="7">
+        <v>1.9607843137254901</v>
+      </c>
+      <c r="V51" s="7">
+        <v>3.8201398879967852</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22">
+      <c r="A52" s="3">
+        <v>7</v>
+      </c>
+      <c r="B52" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C52" s="6">
+        <v>0.75628887838736603</v>
+      </c>
+      <c r="D52" s="3">
+        <v>22</v>
+      </c>
+      <c r="E52" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F52" s="2">
+        <f t="shared" si="5"/>
+        <v>3.0907558302894071</v>
+      </c>
+      <c r="G52" s="2">
+        <f t="shared" si="0"/>
+        <v>0.3231244731666198</v>
+      </c>
+      <c r="H52" s="7">
+        <v>1.1363636363636365</v>
+      </c>
+      <c r="I52" s="7">
+        <v>1.9607843137254901</v>
+      </c>
+      <c r="J52" s="7">
+        <v>1.8604743621132287</v>
+      </c>
+      <c r="K52" s="8">
+        <f t="shared" si="1"/>
+        <v>12.812548979067353</v>
+      </c>
+      <c r="L52" s="8">
+        <f t="shared" si="2"/>
+        <v>1.3394937569024958</v>
+      </c>
+      <c r="M52" s="6">
+        <f t="shared" si="6"/>
+        <v>0.10454545454545454</v>
+      </c>
+      <c r="N52" s="2">
+        <f t="shared" si="3"/>
+        <v>3.5794621075054494</v>
+      </c>
+      <c r="P52" s="19">
+        <f t="shared" si="4"/>
+        <v>4.1454419833182463</v>
+      </c>
+      <c r="R52" s="3">
+        <v>7</v>
+      </c>
+      <c r="S52" s="3">
+        <v>-1</v>
+      </c>
+      <c r="T52" s="7">
+        <v>1.1363636363636365</v>
+      </c>
+      <c r="U52" s="7">
+        <v>1.9607843137254901</v>
+      </c>
+      <c r="V52" s="7">
+        <v>1.8604743621132287</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22">
+      <c r="A53" s="3">
+        <v>7</v>
+      </c>
+      <c r="B53" s="3">
+        <v>0</v>
+      </c>
+      <c r="C53" s="6">
+        <v>0.76030831903585805</v>
+      </c>
+      <c r="D53" s="3">
+        <v>36</v>
+      </c>
+      <c r="E53" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="F53" s="2">
+        <f t="shared" si="5"/>
+        <v>5.0576004495644842</v>
+      </c>
+      <c r="G53" s="2">
+        <f t="shared" si="0"/>
+        <v>0.25288002247822422</v>
+      </c>
+      <c r="H53" s="7">
+        <v>1.0526315789473684</v>
+      </c>
+      <c r="I53" s="7">
+        <v>1.9607843137254901</v>
+      </c>
+      <c r="J53" s="7">
+        <v>0.76030831903585805</v>
+      </c>
+      <c r="K53" s="8">
+        <f t="shared" si="1"/>
+        <v>7.9367093832061348</v>
+      </c>
+      <c r="L53" s="8">
+        <f t="shared" si="2"/>
+        <v>0.39683546916030682</v>
+      </c>
+      <c r="M53" s="6">
+        <f t="shared" si="6"/>
+        <v>5.000000000000001E-2</v>
+      </c>
+      <c r="N53" s="2">
+        <f t="shared" si="3"/>
+        <v>2.8172166021103409</v>
+      </c>
+      <c r="P53" s="19">
+        <f t="shared" si="4"/>
+        <v>1.5692638163794796</v>
+      </c>
+      <c r="R53" s="3">
+        <v>7</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="7">
+        <v>1.0526315789473684</v>
+      </c>
+      <c r="U53" s="7">
+        <v>1.9607843137254901</v>
+      </c>
+      <c r="V53" s="7">
+        <v>0.76030831903585805</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22">
+      <c r="A54" s="3">
+        <v>8</v>
+      </c>
+      <c r="B54" s="3">
+        <v>0</v>
+      </c>
+      <c r="C54" s="6">
+        <v>0</v>
+      </c>
+      <c r="D54" s="3">
+        <v>0</v>
+      </c>
+      <c r="E54" s="2">
+        <v>3</v>
+      </c>
+      <c r="F54" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G54" s="2">
+        <f t="shared" si="0"/>
+        <v>0.42146670413037368</v>
+      </c>
+      <c r="H54" s="7">
+        <v>1.04</v>
+      </c>
+      <c r="I54" s="7">
+        <v>1.96</v>
+      </c>
+      <c r="J54" s="7">
+        <v>0.87</v>
+      </c>
+      <c r="K54" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L54" s="8">
+        <f t="shared" si="2"/>
+        <v>0.74743242483843775</v>
+      </c>
+      <c r="M54" s="6"/>
+      <c r="N54" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P54" s="19">
+        <f t="shared" si="4"/>
+        <v>1.7734080000000001</v>
+      </c>
+      <c r="R54" s="3">
+        <v>8</v>
+      </c>
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+      <c r="T54" s="7">
+        <v>1.04</v>
+      </c>
+      <c r="U54" s="7">
+        <v>1.96</v>
+      </c>
+      <c r="V54" s="7">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22">
+      <c r="A55" s="3">
+        <v>9</v>
+      </c>
+      <c r="B55" s="3">
+        <v>-5</v>
+      </c>
+      <c r="C55" s="6">
+        <v>0.97500051282037792</v>
+      </c>
+      <c r="D55" s="3">
+        <v>16</v>
+      </c>
+      <c r="E55" s="2">
+        <v>3</v>
+      </c>
+      <c r="F55" s="2">
+        <f t="shared" si="5"/>
+        <v>2.2478224220286598</v>
+      </c>
+      <c r="G55" s="2">
+        <f t="shared" si="0"/>
+        <v>0.42146670413037368</v>
+      </c>
+      <c r="H55" s="7">
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="I55" s="7">
+        <v>1.9607843137254901</v>
+      </c>
+      <c r="J55" s="7">
+        <v>7.5959100475976902</v>
+      </c>
+      <c r="K55" s="8">
+        <f t="shared" si="1"/>
+        <v>37.198816820703428</v>
+      </c>
+      <c r="L55" s="8">
+        <f t="shared" si="2"/>
+        <v>6.9747781538818918</v>
+      </c>
+      <c r="M55" s="6">
+        <f t="shared" si="6"/>
+        <v>0.18749999999999997</v>
+      </c>
+      <c r="N55" s="2">
+        <f t="shared" si="3"/>
+        <v>6.0990832770756152</v>
+      </c>
+      <c r="P55" s="19">
+        <f t="shared" si="4"/>
+        <v>16.548823633110437</v>
+      </c>
+      <c r="R55" s="3">
+        <v>9</v>
+      </c>
+      <c r="S55" s="3">
+        <v>-5</v>
+      </c>
+      <c r="T55" s="7">
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="U55" s="7">
+        <v>1.9607843137254901</v>
+      </c>
+      <c r="V55" s="7">
+        <v>7.5959100475976902</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22">
+      <c r="A56" s="3">
+        <v>9</v>
+      </c>
+      <c r="B56" s="3">
+        <v>-4</v>
+      </c>
+      <c r="C56" s="6">
+        <v>0.97251118245498847</v>
+      </c>
+      <c r="D56" s="3">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="E56" s="2">
+        <v>3</v>
+      </c>
+      <c r="F56" s="2">
+        <f t="shared" si="5"/>
+        <v>2.3742624332677718</v>
+      </c>
+      <c r="G56" s="2">
+        <f t="shared" si="0"/>
+        <v>0.42146670413037368</v>
+      </c>
+      <c r="H56" s="7">
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="I56" s="7">
+        <v>1.9607843137254901</v>
+      </c>
+      <c r="J56" s="7">
+        <v>6.0737377403266732</v>
+      </c>
+      <c r="K56" s="8">
+        <f t="shared" si="1"/>
+        <v>31.417532345050777</v>
+      </c>
+      <c r="L56" s="8">
+        <f t="shared" si="2"/>
+        <v>5.577076747642149</v>
+      </c>
+      <c r="M56" s="6">
+        <f t="shared" si="6"/>
+        <v>0.17751479289940825</v>
+      </c>
+      <c r="N56" s="2">
+        <f t="shared" si="3"/>
+        <v>5.6051344627092377</v>
+      </c>
+      <c r="P56" s="19">
+        <f t="shared" si="4"/>
+        <v>13.232544096572273</v>
+      </c>
+      <c r="R56" s="3">
+        <v>9</v>
+      </c>
+      <c r="S56" s="3">
+        <v>-4</v>
+      </c>
+      <c r="T56" s="7">
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="U56" s="7">
+        <v>1.9607843137254901</v>
+      </c>
+      <c r="V56" s="7">
+        <v>6.0737377403266732</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22">
+      <c r="A57" s="3">
+        <v>9</v>
+      </c>
+      <c r="B57" s="3">
+        <v>-3</v>
+      </c>
+      <c r="C57" s="6">
+        <v>0</v>
+      </c>
+      <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="2">
+        <v>8</v>
+      </c>
+      <c r="F57" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G57" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1239112110143299</v>
+      </c>
+      <c r="H57" s="7">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="I57" s="7">
+        <v>1.96</v>
+      </c>
+      <c r="J57" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="K57" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L57" s="8">
+        <f t="shared" si="2"/>
+        <v>11.003315538072494</v>
+      </c>
+      <c r="M57" s="6"/>
+      <c r="N57" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P57" s="19">
+        <f t="shared" si="4"/>
+        <v>9.7902000000000005</v>
+      </c>
+      <c r="R57" s="3">
+        <v>9</v>
+      </c>
+      <c r="S57" s="3">
+        <v>-3</v>
+      </c>
+      <c r="T57" s="7">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="U57" s="7">
+        <v>1.96</v>
+      </c>
+      <c r="V57" s="7">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22">
+      <c r="A58" s="3">
+        <v>9</v>
+      </c>
+      <c r="B58" s="3">
+        <v>-2</v>
+      </c>
+      <c r="C58" s="6">
+        <v>0.97280881986133327</v>
+      </c>
+      <c r="D58" s="3">
+        <v>10</v>
+      </c>
+      <c r="E58" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="F58" s="2">
+        <f t="shared" si="5"/>
+        <v>1.4048890137679122</v>
+      </c>
+      <c r="G58" s="2">
+        <f t="shared" si="0"/>
+        <v>0.40741781399269456</v>
+      </c>
+      <c r="H58" s="7">
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="I58" s="7">
+        <v>1.9607843137254901</v>
+      </c>
+      <c r="J58" s="7">
+        <v>2.9819238205429937</v>
+      </c>
+      <c r="K58" s="8">
+        <f t="shared" si="1"/>
+        <v>9.1269542818598932</v>
+      </c>
+      <c r="L58" s="8">
+        <f t="shared" si="2"/>
+        <v>2.6468167417393693</v>
+      </c>
+      <c r="M58" s="6">
+        <f t="shared" si="6"/>
+        <v>0.29000000000000004</v>
+      </c>
+      <c r="N58" s="2">
+        <f t="shared" si="3"/>
+        <v>3.0210849511160545</v>
+      </c>
+      <c r="P58" s="19">
+        <f t="shared" si="4"/>
+        <v>6.4965660578278728</v>
+      </c>
+      <c r="R58" s="3">
+        <v>9</v>
+      </c>
+      <c r="S58" s="3">
+        <v>-2</v>
+      </c>
+      <c r="T58" s="7">
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="U58" s="7">
+        <v>1.9607843137254901</v>
+      </c>
+      <c r="V58" s="7">
+        <v>2.9819238205429937</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22">
+      <c r="A59" s="13">
+        <v>9</v>
+      </c>
+      <c r="B59" s="13">
+        <v>-1</v>
+      </c>
+      <c r="C59" s="14">
+        <v>0</v>
+      </c>
+      <c r="D59" s="13">
+        <v>0</v>
+      </c>
+      <c r="E59" s="2">
+        <v>6</v>
+      </c>
+      <c r="F59" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G59" s="2">
+        <f t="shared" si="0"/>
+        <v>0.84293340826074736</v>
+      </c>
+      <c r="H59" s="7">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="I59" s="1">
+        <v>1.96</v>
+      </c>
+      <c r="J59" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="K59" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L59" s="8">
+        <f t="shared" si="2"/>
+        <v>2.750828884518123</v>
+      </c>
+      <c r="M59" s="6"/>
+      <c r="N59" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P59" s="19">
+        <f t="shared" si="4"/>
+        <v>3.2634000000000003</v>
+      </c>
+      <c r="R59" s="13">
+        <v>9</v>
+      </c>
+      <c r="S59" s="13">
+        <v>-1</v>
+      </c>
+      <c r="T59" s="7">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="U59" s="1">
+        <v>1.96</v>
+      </c>
+      <c r="V59" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22">
+      <c r="A60" s="13">
+        <v>9</v>
+      </c>
+      <c r="B60" s="13">
+        <v>0</v>
+      </c>
+      <c r="C60" s="13">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="D60" s="13">
+        <v>17</v>
+      </c>
+      <c r="E60" s="2">
+        <v>10</v>
+      </c>
+      <c r="F60" s="2">
+        <f t="shared" si="5"/>
+        <v>2.3883113234054507</v>
+      </c>
+      <c r="G60" s="2">
+        <f t="shared" si="0"/>
+        <v>1.4048890137679122</v>
+      </c>
+      <c r="H60" s="7">
+        <v>1.04</v>
+      </c>
+      <c r="I60" s="1">
+        <v>1.9607843137254901</v>
+      </c>
+      <c r="J60" s="1">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="K60" s="8">
+        <f t="shared" si="1"/>
+        <v>4.7777465580219154</v>
+      </c>
+      <c r="L60" s="8">
+        <f t="shared" si="2"/>
+        <v>2.8104391517775973</v>
+      </c>
+      <c r="M60" s="6">
+        <f t="shared" si="6"/>
+        <v>0.58823529411764708</v>
+      </c>
+      <c r="N60" s="2">
+        <f t="shared" si="3"/>
+        <v>2.1858056999701314</v>
+      </c>
+      <c r="P60" s="19">
+        <f t="shared" si="4"/>
+        <v>2.0004705882352938</v>
+      </c>
+      <c r="R60" s="13">
+        <v>9</v>
+      </c>
+      <c r="S60" s="13">
+        <v>0</v>
+      </c>
+      <c r="T60" s="7">
+        <v>1.04</v>
+      </c>
+      <c r="U60" s="1">
+        <v>1.9607843137254901</v>
+      </c>
+      <c r="V60" s="1">
+        <v>0.98099999999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22">
+      <c r="L61" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>